--- a/backend/auxiliar/albireo.units.xlsx
+++ b/backend/auxiliar/albireo.units.xlsx
@@ -637,31 +637,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.9469194054822</v>
+        <v>292.9434952463879</v>
       </c>
       <c r="R2" t="n">
-        <v>28.01813568607821</v>
+        <v>27.97225827650365</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8288716931606084, 'y': 0.46603169252647836, 'z': 0.3094934213161437, 'ar': 5.108235152768638, 'dec': 0.4879883626478569, 'ar_deg': 292.68031501400833, 'dec_deg': 27.959673631221666, 'pmra': 4.915, 'pmdec': -11.127}, 'proper motion': {'ar': 5.108235761678063, 'dec': 0.4879869841462963, 'pmra': 4.915, 'pmdec': -11.127}, 'precession': {'x': 0.3440693624079015, 'y': -0.8130186716447617, 'z': 0.46969874750653473, 'ar': 5.112733878826398, 'dec': 0.4889495107750501, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3440794198842956, 'y': -0.8130325457119064, 'z': 0.46966736359396255, 'ar': 5.112738245370085, 'dec': 0.48891396176674423, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3441633143376825, 'y': -0.8129861075776558, 'z': 0.4696862803508676, 'ar': 5.112846260419703, 'dec': 0.4889353889683604, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3441840441247779, 'y': -0.8129399278924727, 'z': 0.46975101639921285, 'ar': 5.112888277200134, 'dec': 0.4890087179925852, 'R': 16.950202936512817, 'alt': 74.58754891069923}}</t>
+          <t>{'simbad': {'x': 0.8288716931606084, 'y': 0.46603169252647836, 'z': 0.3094934213161437, 'ar': 5.108235152768638, 'dec': 0.4879883626478569, 'ar_deg': 292.68031501400833, 'dec_deg': 27.959673631221666, 'pmra': 4.915, 'pmdec': -11.127}, 'proper motion': {'ar': 5.108235764874782, 'dec': 0.48798697690929244, 'pmra': 4.915, 'pmdec': -11.127}, 'precession': {'x': 0.34408763648924356, 'y': -0.813008350493409, 'z': 0.4697032259238087, 'ar': 5.1127574980340835, 'dec': 0.48895458359740324, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34409792162362274, 'y': -0.813024302954251, 'z': 0.46966807762510043, 'ar': 5.112761184039457, 'dec': 0.4889147705525904, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3441328901301161, 'y': -0.8129742641730535, 'z': 0.46972907055341534, 'ar': 5.1128197540515385, 'dec': 0.48898385876421735, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3442819757754322, 'y': -0.8133066142648255, 'z': 0.4690439983085275, 'ar': 5.112828514349826, 'dec': 0.488208006143223, 'R': -160.03904402516613, 'alt': -20.555711625812464}}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>19h31m47.261s</t>
+          <t>19h31m46.439s</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>+28°01'5.288"</t>
+          <t>+27°58'20.130"</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.112888277200133</v>
+        <v>5.112828514349826</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4890087179925852</v>
+        <v>0.4882080061432231</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19h31m47.261s</t>
+          <t>19h31m46.439s</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>+28°01'5.288"</t>
+          <t>+27°58'20.130"</t>
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>5.112888277200133</v>
+        <v>5.112828514349826</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4890087179925852</v>
+        <v>0.4882080061432231</v>
       </c>
     </row>
     <row r="3">
@@ -748,31 +748,31 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>293.0801430911634</v>
+        <v>293.0766723175419</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95424441419517</v>
+        <v>27.90849381995612</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7422745682107805, 'y': 0.5587448361350019, 'z': 0.3699090070273623, 'ar': 5.110557462390437, 'dec': 0.4868669741583784, 'ar_deg': 292.81337355406, 'dec_deg': 27.895422803579997, 'pmra': -2.408, 'pmdec': -5.353}, 'proper motion': {'ar': 5.1105571640681795, 'dec': 0.486866310986018, 'pmra': -2.408, 'pmdec': -5.353}, 'precession': {'x': 0.34616448821474727, 'y': -0.8126976880542585, 'z': 0.46871378786023066, 'ar': 5.115059749255893, 'dec': 0.48783415299695637, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3461745474398753, 'y': -0.8127114865419826, 'z': 0.4686824323009327, 'ar': 5.115064104588961, 'dec': 0.4877986571450756, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34625837924589864, 'y': -0.8126649090617796, 'z': 0.4687012698741201, 'ar': 5.115172078435264, 'dec': 0.4878199820140571, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3462784873605877, 'y': -0.8126188291646161, 'z': 0.46876630390674523, 'ar': 5.115213469156912, 'dec': 0.4878936049349393, 'R': 16.955316618799305, 'alt': 74.5831469076374}}</t>
+          <t>{'simbad': {'x': 0.7422745682107805, 'y': 0.5587448361350019, 'z': 0.3699090070273623, 'ar': 5.110557462390437, 'dec': 0.4868669741583784, 'ar_deg': 292.81337355406, 'dec_deg': 27.895422803579997, 'pmra': -2.408, 'pmdec': -5.353}, 'proper motion': {'ar': 5.110557162502015, 'dec': 0.48686630750442533, 'pmra': -2.408, 'pmdec': -5.353}, 'precession': {'x': 0.34618276093646844, 'y': -0.8126873040671964, 'z': 0.4687182968888632, 'ar': 5.115083387140881, 'dec': 0.48783925746774276, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3461930478579027, 'y': -0.8127031755381031, 'z': 0.46868317879473664, 'ar': 5.115087059508925, 'dec': 0.48779950220064183, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3462281063500663, 'y': -0.812653097516971, 'z': 0.46874411086361345, 'ar': 5.115145791239255, 'dec': 0.48786848058669124, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34637586598453346, 'y': -0.8129839022859497, 'z': 0.4680608230640261, 'ar': 5.1151528927296255, 'dec': 0.48709510643072385, 'R': -159.52512002665742, 'alt': -20.620536966481616}}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>19h32m19.234s</t>
+          <t>19h32m18.401s</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>+27°57'15.280"</t>
+          <t>+27°54'30.578"</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.115213469156912</v>
+        <v>5.115152892729625</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4878936049349392</v>
+        <v>0.4870951064307238</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -792,19 +792,19 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19h32m19.234s</t>
+          <t>19h32m18.401s</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>+27°57'15.280"</t>
+          <t>+27°54'30.578"</t>
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>5.115213469156912</v>
+        <v>5.115152892729625</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4878936049349392</v>
+        <v>0.4870951064307238</v>
       </c>
     </row>
     <row r="4">
@@ -859,31 +859,31 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.9323881297424</v>
+        <v>292.9289704853442</v>
       </c>
       <c r="R4" t="n">
-        <v>27.96913225193491</v>
+        <v>27.92334370665498</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8212749203440782, 'y': 0.44606842217223996, 'z': 0.3557112142660058, 'ar': 5.107979706849363, 'dec': 0.4871328948917987, 'ar_deg': 292.66567904094, 'dec_deg': 27.910658939290002, 'pmra': 0.174, 'pmdec': -7.135}, 'proper motion': {'ar': 5.107979728405873, 'dec': 0.48713201095105685, 'pmra': 0.174, 'pmdec': -7.135}, 'precession': {'x': 0.34401952283002313, 'y': -0.8134757401033144, 'z': 0.46894326754434623, 'ar': 5.112480224557833, 'dec': 0.4880939543000769, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3440295932544992, 'y': -0.8134895835424871, 'z': 0.46891186424851183, 'ar': 5.11248462092005, 'dec': 0.4880583995066, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34411350144089703, 'y': -0.8134431770266652, 'z': 0.46893080073167626, 'ar': 5.112592584348267, 'dec': 0.48807983930161003, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3441342759320732, 'y': -0.8133969070245726, 'z': 0.46899581210450714, 'ar': 5.11263465859396, 'dec': 0.48815344672200023, 'R': 17.007744901317572, 'alt': 74.53802577089405}}</t>
+          <t>{'simbad': {'x': 0.8212749203440782, 'y': 0.44606842217223996, 'z': 0.3557112142660058, 'ar': 5.107979706849363, 'dec': 0.4871328948917987, 'ar_deg': 292.66567904094, 'dec_deg': 27.910658939290002, 'pmra': 0.174, 'pmdec': -7.135}, 'proper motion': {'ar': 5.107979728519042, 'dec': 0.4871320063104508, 'pmra': 0.174, 'pmdec': -7.135}, 'precession': {'x': 0.3440378174809177, 'y': -0.8134654203881965, 'z': 0.4689477475962771, 'ar': 5.112503853159056, 'dec': 0.48809902666700133, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34404811585673994, 'y': -0.8134813386890254, 'z': 0.468912577758518, 'ar': 5.112507571731548, 'dec': 0.4880592073347674, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34408310630366745, 'y': -0.8134313792491866, 'z': 0.4689735677084421, 'ar': 5.112566093679954, 'dec': 0.4881282607646806, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3442316664167912, 'y': -0.8137623624703038, 'z': 0.4682898432196331, 'ar': 5.112575009446548, 'dec': 0.48735428584716695, 'R': -159.65205216253793, 'alt': -20.604494502021712}}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>19h31m43.773s</t>
+          <t>19h31m42.953s</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>+27°58'8.876"</t>
+          <t>+27°55'24.037"</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.11263465859396</v>
+        <v>5.112575009446548</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4881534467220002</v>
+        <v>0.487354285847167</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -903,19 +903,19 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19h31m43.773s</t>
+          <t>19h31m42.953s</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>+27°58'8.876"</t>
+          <t>+27°55'24.037"</t>
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>5.11263465859396</v>
+        <v>5.112575009446548</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4881534467220002</v>
+        <v>0.487354285847167</v>
       </c>
     </row>
     <row r="5">
@@ -970,31 +970,31 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.8022962993604</v>
+        <v>292.7989237136473</v>
       </c>
       <c r="R5" t="n">
-        <v>28.05079451604047</v>
+        <v>28.00484590176009</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8963735742649112, 'y': 0.34536434220550455, 'z': 0.2779170496614177, 'ar': 5.105714263822092, 'dec': 0.48856493561150405, 'ar_deg': 292.53587871675, 'dec_deg': 27.992708828619996, 'pmra': -3.168, 'pmdec': -17.028}, 'proper motion': {'ar': 5.105713871344968, 'dec': 0.4885628260469698, 'pmra': -3.168, 'pmdec': -17.028}, 'precession': {'x': 0.3419117210198084, 'y': -0.8136378260018866, 'z': 0.4702019386691177, 'ar': 5.110209017739574, 'dec': 0.48951957449850647, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3419217851150027, 'y': -0.8136517566242292, 'z': 0.47017051354383776, 'ar': 5.110213415449058, 'dec': 0.4894839680038746, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34200575122417426, 'y': -0.8136054805121158, 'z': 0.47018952371382905, 'ar': 5.110321437867298, 'dec': 0.48950550755139854, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.34202714139246143, 'y': -0.8135591430368309, 'z': 0.4702541390908518, 'ar': 5.110364127823846, 'dec': 0.4895787221052754, 'R': 16.98380940994946, 'alt': 74.55862287249165}}</t>
+          <t>{'simbad': {'x': 0.8963735742649112, 'y': 0.34536434220550455, 'z': 0.2779170496614177, 'ar': 5.105714263822092, 'dec': 0.48856493561150405, 'ar_deg': 292.53587871675, 'dec_deg': 27.992708828619996, 'pmra': -3.168, 'pmdec': -17.028}, 'proper motion': {'ar': 5.105713869284501, 'dec': 0.48856281497195375, 'pmra': -3.168, 'pmdec': -17.028}, 'precession': {'x': 0.34193000354632286, 'y': -0.8136275730613324, 'z': 0.47020638556822886, 'ar': 5.110232616103688, 'dec': 0.4895246131483851, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34194029545085153, 'y': -0.8136435852470094, 'z': 0.47017119279404684, 'ar': 5.110236337565825, 'dec': 0.4894847376267251, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3419751866721671, 'y': -0.8135936376052589, 'z': 0.4702322453307289, 'ar': 5.110294711588303, 'dec': 0.4895539143485893, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3421252768130011, 'y': -0.8139266706770769, 'z': 0.46954623811309176, 'ar': 5.110305265098848, 'dec': 0.48877676749935406, 'R': -160.30956080961235, 'alt': -20.521724778571865}}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>19h31m12.551s</t>
+          <t>19h31m11.742s</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>+28°03'2.860"</t>
+          <t>+28°00'17.445"</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.110364127823847</v>
+        <v>5.110305265098848</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4895787221052755</v>
+        <v>0.4887767674993541</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1014,19 +1014,19 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>19h31m12.551s</t>
+          <t>19h31m11.742s</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>+28°03'2.860"</t>
+          <t>+28°00'17.445"</t>
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>5.110364127823847</v>
+        <v>5.110305265098848</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4895787221052755</v>
+        <v>0.4887767674993541</v>
       </c>
     </row>
     <row r="6">
@@ -1081,31 +1081,31 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.0922159044515</v>
+        <v>293.0887415545227</v>
       </c>
       <c r="R6" t="n">
-        <v>27.89357702207209</v>
+        <v>27.8479363622172</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7163997389707878, 'y': 0.5530171797645631, 'z': 0.4253744384513908, 'ar': 5.110769316220216, 'dec': 0.48581166950323895, 'ar_deg': 292.82551188438, 'dec_deg': 27.83495830074, 'pmra': -36.737, 'pmdec': -40.447}, 'proper motion': {'ar': 5.110764764947471, 'dec': 0.48580665860608624, 'pmra': -36.737, 'pmdec': -40.447}, 'precession': {'x': 0.3465302534332814, 'y': -0.813080940837962, 'z': 0.46777790360546123, 'ar': 5.115270558089138, 'dec': 0.48677497892206906, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3465403256788213, 'y': -0.8130946943288175, 'z': 0.46774653470949756, 'ar': 5.115274940522261, 'dec': 0.4867394878979191, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3466241585540351, 'y': -0.8130481201337042, 'z': 0.46776537607411345, 'ar': 5.1153828558215295, 'dec': 0.4867608050912099, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3466441875872479, 'y': -0.8130019720476181, 'z': 0.46783073932637276, 'ar': 5.115424179498769, 'dec': 0.48683475919379293, 'R': 17.01298676387034, 'alt': 74.53351555334919}}</t>
+          <t>{'simbad': {'x': 0.7163997389707878, 'y': 0.5530171797645631, 'z': 0.4253744384513908, 'ar': 5.110769316220216, 'dec': 0.48581166950323895, 'ar_deg': 292.82551188438, 'dec_deg': 27.83495830074, 'pmra': -36.737, 'pmdec': -40.447}, 'proper motion': {'ar': 5.110764741053716, 'dec': 0.48580663229934595, 'pmra': -36.737, 'pmdec': -40.447}, 'precession': {'x': 0.3465485359370537, 'y': -0.813070563436972, 'z': 0.4677823971807506, 'ar': 5.115294190539866, 'dec': 0.4867800630443047, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34655883617410893, 'y': -0.8130863853752011, 'z': 0.4677472640081788, 'ar': 5.115297892235452, 'dec': 0.48674031302481274, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3465939341091932, 'y': -0.8130363771855905, 'z': 0.4678081810011901, 'ar': 5.115356608790242, 'dec': 0.4868092356462446, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3467409202300235, 'y': -0.8133655462240139, 'z': 0.4671265593538301, 'ar': 5.115363540653145, 'dec': 0.4860381794065424, 'R': -159.0467883510952, 'alt': -20.681178121586683}}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>19h32m22.132s</t>
+          <t>19h32m21.298s</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>+27°53'36.877"</t>
+          <t>+27°50'52.571"</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.115424179498769</v>
+        <v>5.115363540653145</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4868347591937929</v>
+        <v>0.4860381794065424</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19h32m22.132s</t>
+          <t>19h32m21.298s</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>+27°53'36.877"</t>
+          <t>+27°50'52.571"</t>
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>5.115424179498769</v>
+        <v>5.115363540653145</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4868347591937929</v>
+        <v>0.4860381794065424</v>
       </c>
     </row>
     <row r="7">
@@ -1192,31 +1192,31 @@
         <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>292.8544559907331</v>
+        <v>292.8510634113134</v>
       </c>
       <c r="R7" t="n">
-        <v>28.09986613266232</v>
+        <v>28.05383159961842</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.888463324428159, 'y': 0.39675014177223034, 'z': 0.23069947149869913, 'ar': 5.106625774103543, 'dec': 0.4894171549136055, 'ar_deg': 292.58810440886, 'dec_deg': 28.041537397849996, 'pmra': 5.823, 'pmdec': 2.919}, 'proper motion': {'ar': 5.106626495503255, 'dec': 0.48941751654262106, 'pmra': 5.823, 'pmdec': 2.919}, 'precession': {'x': 0.342495920407946, 'y': -0.8129545981982697, 'z': 0.4709579235687664, 'ar': 5.111119590590276, 'dec': 0.4903763531328653, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3425059678188995, 'y': -0.8129685506510902, 'z': 0.47092653106477744, 'ar': 5.111123945990331, 'dec': 0.49034076734375687, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3425899006282877, 'y': -0.8129221981467883, 'z': 0.47094549551693754, 'ar': 5.111232027024839, 'dec': 0.49036226491074114, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.34261107778395467, 'y': -0.812876004480627, 'z': 0.47100982019415266, 'ar': 5.111274486175125, 'dec': 0.49043518338460323, 'R': 16.908670963346115, 'alt': 74.62330762321281}}</t>
+          <t>{'simbad': {'x': 0.888463324428159, 'y': 0.39675014177223034, 'z': 0.23069947149869913, 'ar': 5.106625774103543, 'dec': 0.4894171549136055, 'ar_deg': 292.58810440886, 'dec_deg': 28.041537397849996, 'pmra': 5.823, 'pmdec': 2.919}, 'proper motion': {'ar': 5.1066264992905355, 'dec': 0.48941751844113934, 'pmra': 5.823, 'pmdec': 2.919}, 'precession': {'x': 0.34251417494180886, 'y': -0.8129443201105424, 'z': 0.47096238954288094, 'ar': 5.111143184000976, 'dec': 0.49038141570886906, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3425244497835351, 'y': -0.8129603574624642, 'z': 0.47092723269629383, 'ar': 5.111146858909088, 'dec': 0.4903415626890189, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.342559334474765, 'y': -0.8129102952402047, 'z': 0.47098827401188015, 'ar': 5.111205336776975, 'dec': 0.49041075830956354, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34270979508828203, 'y': -0.8132447614836855, 'z': 0.47030091884865743, 'ar': 5.111215274494116, 'dec': 0.4896317292133689, 'R': -160.69646343614474, 'alt': -20.47327710085124}}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>19h31m25.069s</t>
+          <t>19h31m24.255s</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>+28°05'59.518"</t>
+          <t>+28°03'13.794"</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.111274486175125</v>
+        <v>5.111215274494116</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4904351833846033</v>
+        <v>0.4896317292133689</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1236,19 +1236,19 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>19h31m25.069s</t>
+          <t>19h31m24.255s</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>+28°05'59.518"</t>
+          <t>+28°03'13.794"</t>
         </is>
       </c>
       <c r="AD7" t="n">
-        <v>5.111274486175125</v>
+        <v>5.111215274494116</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4904351833846033</v>
+        <v>0.4896317292133689</v>
       </c>
     </row>
     <row r="8">
@@ -1303,31 +1303,31 @@
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>292.8553728451053</v>
+        <v>292.8519859082098</v>
       </c>
       <c r="R8" t="n">
-        <v>27.86076558768587</v>
+        <v>27.81516859252524</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.81317961965919, 'y': 0.3633906955498259, 'z': 0.4546274392937025, 'ar': 5.1066304095434, 'dec': 0.485243070890621, 'ar_deg': 292.58836999999994, 'dec_deg': 27.80238, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.1066304095434, 'dec': 0.485243070890621, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.3432693977694964, 'y': -0.8147537144189625, 'z': 0.46727134022478983, 'ar': 5.11113576136721, 'dec': 0.4862019304763388, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34327950124646917, 'y': -0.814767500635434, 'z': 0.46723987836256387, 'ar': 5.111140238255588, 'dec': 0.4861663450565953, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3433634633501359, 'y': -0.8147212176837896, 'z': 0.4672588891525159, 'ar': 5.11124808007875, 'dec': 0.4861878474208761, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3433845386669605, 'y': -0.8146746856772429, 'z': 0.4673245286962411, 'ar': 5.11129048830268, 'dec': 0.48626209163145134, 'R': 17.155908724235957, 'alt': 74.41061707001285}}</t>
+          <t>{'simbad': {'x': 0.81317961965919, 'y': 0.3633906955498259, 'z': 0.4546274392937025, 'ar': 5.1066304095434, 'dec': 0.485243070890621, 'ar_deg': 292.58836999999994, 'dec_deg': 27.80238, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.1066304095434, 'dec': 0.485243070890621, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.3432877516035196, 'y': -0.8147434152480455, 'z': 0.4672758145987776, 'ar': 5.111159415325915, 'dec': 0.48620699133972667, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3432980837810607, 'y': -0.8147592687480247, 'z': 0.46724058006709523, 'ar': 5.111163222254804, 'dec': 0.48616713872292505, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3433331042300102, 'y': -0.8147095268839859, 'z': 0.46730157965093216, 'ar': 5.111221571990095, 'dec': 0.4862361338718668, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3434807013492832, 'y': -0.8150374395234536, 'z': 0.46662080962560615, 'ar': 5.111231375102298, 'dec': 0.48546627393688246, 'R': -158.80507674578328, 'alt': -20.711934164679075}}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>19h31m25.289s</t>
+          <t>19h31m24.477s</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>+27°51'38.756"</t>
+          <t>+27°48'54.607"</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.11129048830268</v>
+        <v>5.111231375102298</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4862620916314513</v>
+        <v>0.4854662739368825</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>19h31m25.289s</t>
+          <t>19h31m24.477s</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>+27°51'38.756"</t>
+          <t>+27°48'54.607"</t>
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>5.11129048830268</v>
+        <v>5.111231375102298</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4862620916314513</v>
+        <v>0.4854662739368825</v>
       </c>
     </row>
     <row r="9">
@@ -1414,31 +1414,31 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>292.9556982628848</v>
+        <v>292.9522705160198</v>
       </c>
       <c r="R9" t="n">
-        <v>28.0238227334106</v>
+        <v>27.97793587805419</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8262121933548849, 'y': 0.4741925761710259, 'z': 0.304162476738989, 'ar': 5.108389365583733, 'dec': 0.4880861207025677, 'ar_deg': 292.68915075746, 'dec_deg': 27.96527475517, 'pmra': -1.078, 'pmdec': -1.54}, 'proper motion': {'ar': 5.108389232032489, 'dec': 0.4880859299150775, 'pmra': -1.078, 'pmdec': -1.54}, 'precession': {'x': 0.344175774505865, 'y': -0.812922977913812, 'z': 0.4697864070224127, 'ar': 5.112887136726113, 'dec': 0.48904880752913754, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34418582977582046, 'y': -0.8129368538740904, 'z': 0.46975502785475926, 'ar': 5.112891497464145, 'dec': 0.489013262017479, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3442697188988995, 'y': -0.812890403663243, 'z': 0.46977393742254636, 'ar': 5.112999519740708, 'dec': 0.4890346822075708, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.34429041181984427, 'y': -0.8128442445717313, 'z': 0.46983863867878384, 'ar': 5.113041497166373, 'dec': 0.4891079756932521, 'R': 16.94024520485218, 'alt': 74.59612133690345}}</t>
+          <t>{'simbad': {'x': 0.8262121933548849, 'y': 0.4741925761710259, 'z': 0.304162476738989, 'ar': 5.108389365583733, 'dec': 0.4880861207025677, 'ar_deg': 292.68915075746, 'dec_deg': 27.96527475517, 'pmra': -1.078, 'pmdec': -1.54}, 'proper motion': {'ar': 5.1083892313313575, 'dec': 0.4880859289134611, 'pmra': -1.078, 'pmdec': -1.54}, 'precession': {'x': 0.3441940402483271, 'y': -0.8129126522249832, 'z': 0.46979089232346405, 'ar': 5.11291075090061, 'dec': 0.48905388841738817, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3442043231261515, 'y': -0.8129286069516023, 'z': 0.4697557492367659, 'ar': 5.112914430499913, 'dec': 0.4890140791728566, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34423929194842107, 'y': -0.8128785523302691, 'z': 0.4698167398468213, 'ar': 5.1129730165660305, 'dec': 0.4890831684092978, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3443884088231913, 'y': -0.8132110722502431, 'z': 0.46913151230528083, 'ar': 5.112981671697653, 'dec': 0.48830709898389635, 'R': -160.08357034593493, 'alt': -20.550111073496506}}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>19h31m49.368s</t>
+          <t>19h31m48.545s</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>+28°01'25.762"</t>
+          <t>+27°58'40.569"</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.113041497166373</v>
+        <v>5.112981671697653</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4891079756932522</v>
+        <v>0.4883070989838963</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1458,19 +1458,19 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>19h31m49.368s</t>
+          <t>19h31m48.545s</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>+28°01'25.762"</t>
+          <t>+27°58'40.569"</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>5.113041497166373</v>
+        <v>5.112981671697653</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4891079756932522</v>
+        <v>0.4883070989838963</v>
       </c>
     </row>
     <row r="10">
@@ -1525,31 +1525,31 @@
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>292.9253874723989</v>
+        <v>292.9219718641425</v>
       </c>
       <c r="R10" t="n">
-        <v>27.98440073431151</v>
+        <v>27.93858399512261</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8290374353702145, 'y': 0.4428595014714414, 'z': 0.34142699470200644, 'ar': 5.107858546571783, 'dec': 0.48739888718441626, 'ar_deg': 292.65873706839, 'dec_deg': 27.92589917504, 'pmra': -1.631, 'pmdec': -0.266}, 'proper motion': {'ar': 5.107858344510486, 'dec': 0.48739885423021345, 'pmra': -1.631, 'pmdec': -0.266}, 'precession': {'x': 0.3438714031355762, 'y': -0.8134026165925025, 'z': 0.46917868816266617, 'ar': 5.112357996236905, 'dec': 0.48836051877112036, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34388147066905134, 'y': -0.8134164722765984, 'z': 0.469147286850925, 'ar': 5.112362387114727, 'dec': 0.48832496119053465, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.343965380641693, 'y': -0.8133700695892551, 'z': 0.46916622514454864, 'ar': 5.112470364610512, 'dec': 0.4883464060710165, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3439861927286472, 'y': -0.8133238113145941, 'z': 0.46923115536028936, 'ar': 5.112512474073512, 'dec': 0.4884199320112548, 'R': 16.995148447771268, 'alt': 74.54886483758082}}</t>
+          <t>{'simbad': {'x': 0.8290374353702145, 'y': 0.4428595014714414, 'z': 0.34142699470200644, 'ar': 5.107858546571783, 'dec': 0.48739888718441626, 'ar_deg': 292.65873706839, 'dec_deg': 27.92589917504, 'pmra': -1.631, 'pmdec': -0.266}, 'proper motion': {'ar': 5.107858343449683, 'dec': 0.48739885405720695, 'pmra': -1.631, 'pmdec': -0.266}, 'precession': {'x': 0.34388969074256504, 'y': -0.8133922998014255, 'z': 0.46918317022750416, 'ar': 5.112381619218151, 'dec': 0.48836559413558833, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3438999861619242, 'y': -0.813408231509119, 'z': 0.4691480026932181, 'ar': 5.1123853319063075, 'dec': 0.4883257717740321, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3439349651032287, 'y': -0.8133582581331187, 'z': 0.46920899789550063, 'ar': 5.112443851803717, 'dec': 0.48839484092883584, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34408373740529236, 'y': -0.8136896491325292, 'z': 0.46852485157970736, 'ar': 5.112452860463479, 'dec': 0.4876202790598808, 'R': -159.77328394485457, 'alt': -20.589191803593593}}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>19h31m42.093s</t>
+          <t>19h31m41.273s</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>+27°59'3.843"</t>
+          <t>+27°56'18.902"</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.112512474073512</v>
+        <v>5.112452860463478</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4884199320112548</v>
+        <v>0.4876202790598808</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1569,19 +1569,19 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>19h31m42.093s</t>
+          <t>19h31m41.273s</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>+27°59'3.843"</t>
+          <t>+27°56'18.902"</t>
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>5.112512474073512</v>
+        <v>5.112452860463478</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4884199320112548</v>
+        <v>0.4876202790598808</v>
       </c>
     </row>
     <row r="11">
@@ -1636,31 +1636,31 @@
         <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.005497237703</v>
+        <v>293.0020475812324</v>
       </c>
       <c r="R11" t="n">
-        <v>28.14285205193199</v>
+        <v>28.09674877051098</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8261113084204398, 'y': 0.5308830988331615, 'z': 0.1889530139298358, 'ar': 5.109264509843677, 'dec': 0.49016242167152185, 'ar_deg': 292.73929283001996, 'dec_deg': 28.08423803769, 'pmra': -2.519, 'pmdec': -2.657}, 'proper motion': {'ar': 5.109264197769854, 'dec': 0.49016209250115733, 'pmra': -2.519, 'pmdec': -2.657}, 'precession': {'x': 0.3445001684115714, 'y': -0.8117230184564822, 'z': 0.4716199479160062, 'ar': 5.113756448111585, 'dec': 0.4911269656401943, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3445101907604342, 'y': -0.8117369653932306, 'z': 0.4715886210209046, 'ar': 5.113760731412282, 'dec': 0.4910914399775525, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34459403887375867, 'y': -0.8116904214985959, 'z': 0.4716074723963798, 'ar': 5.113868882093198, 'dec': 0.4911128179363213, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3446145596770622, 'y': -0.8116445040611254, 'z': 0.4716715003961485, 'ar': 5.113910653241067, 'dec': 0.4911854292078554, 'R': 16.793932057566487, 'alt': 74.72215982644894}}</t>
+          <t>{'simbad': {'x': 0.8261113084204398, 'y': 0.5308830988331615, 'z': 0.1889530139298358, 'ar': 5.109264509843677, 'dec': 0.49016242167152185, 'ar_deg': 292.73929283001996, 'dec_deg': 28.08423803769, 'pmra': -2.519, 'pmdec': -2.657}, 'proper motion': {'ar': 5.1092641961314955, 'dec': 0.49016209077304373, 'pmra': -2.519, 'pmdec': -2.657}, 'precession': {'x': 0.3445183736312226, 'y': -0.811712683676145, 'z': 0.47162443680302196, 'ar': 5.1137800316735476, 'dec': 0.49113205623143574, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3445286228419205, 'y': -0.8117287178759462, 'z': 0.47158935168016863, 'ar': 5.113783626561465, 'dec': 0.49109226855994503, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34456354397680083, 'y': -0.81167845707486, 'z': 0.4716503434565921, 'ar': 5.11384235117223, 'dec': 0.4911614357633781, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34471388770996336, 'y': -0.8120143443987279, 'z': 0.47096182447262747, 'ar': 5.113850445377594, 'dec': 0.4903807751510853, 'R': -161.0295424881537, 'alt': -20.431720633749322}}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>19h32m1.319s</t>
+          <t>19h32m0.491s</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>+28°08'34.267"</t>
+          <t>+28°05'48.296"</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.113910653241067</v>
+        <v>5.113850445377594</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4911854292078554</v>
+        <v>0.4903807751510853</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>19h32m1.319s</t>
+          <t>19h32m0.491s</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>+28°08'34.267"</t>
+          <t>+28°05'48.296"</t>
         </is>
       </c>
       <c r="AD11" t="n">
-        <v>5.113910653241067</v>
+        <v>5.113850445377594</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4911854292078554</v>
+        <v>0.4903807751510853</v>
       </c>
     </row>
     <row r="12">
@@ -1747,31 +1747,31 @@
         <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.9427726998233</v>
+        <v>292.9393492334041</v>
       </c>
       <c r="R12" t="n">
-        <v>28.03759270489055</v>
+        <v>27.99167947499653</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8358430514289432, 'y': 0.46551566672851213, 'z': 0.2909665915672484, 'ar': 5.108164618902049, 'dec': 0.48832736255872994, 'ar_deg': 292.67627372114, 'dec_deg': 27.979096895370002, 'pmra': -1.855, 'pmdec': -4.197}, 'proper motion': {'ar': 5.108164389089844, 'dec': 0.4883268426008752, 'pmra': -1.855, 'pmdec': -4.197}, 'precession': {'x': 0.3439483003514072, 'y': -0.8128965937160485, 'z': 0.46999861128542064, 'ar': 5.112661472020756, 'dec': 0.4892892046972043, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3439583536678367, 'y': -0.8129104822643409, 'z': 0.4699672315884035, 'ar': 5.112665829990391, 'dec': 0.489253654037066, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3440422478916585, 'y': -0.8128640433474708, 'z': 0.4699861473474042, 'ar': 5.112773863850421, 'dec': 0.48927508398239394, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3440630043081546, 'y': -0.8128178855204027, 'z': 0.47005077815549656, 'ar': 5.112815903533275, 'dec': 0.489348307033483, 'R': 16.9319601948737, 'alt': 74.6032542794061}}</t>
+          <t>{'simbad': {'x': 0.8358430514289432, 'y': 0.46551566672851213, 'z': 0.2909665915672484, 'ar': 5.108164618902049, 'dec': 0.48832736255872994, 'ar_deg': 292.67627372114, 'dec_deg': 27.979096895370002, 'pmra': -1.855, 'pmdec': -4.197}, 'proper motion': {'ar': 5.1081643878833525, 'dec': 0.4883268398711452, 'pmra': -1.855, 'pmdec': -4.197}, 'precession': {'x': 0.34396656244643986, 'y': -0.8128862757726989, 'z': 0.4700030920953299, 'ar': 5.112685081381336, 'dec': 0.48929428114753243, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34397684332664474, 'y': -0.81290224416947, 'z': 0.4699679485659379, 'ar': 5.112688758113251, 'dec': 0.4892544663071435, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3440117991058725, 'y': -0.8128521831593198, 'z': 0.4700289463523157, 'ar': 5.112747332589255, 'dec': 0.4893235725156055, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34416113596818265, 'y': -0.8131850624106695, 'z': 0.4693433356949313, 'ar': 5.112756152772428, 'dec': 0.4885469700016072, 'R': -160.19381897683834, 'alt': -20.536254799718844}}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>19h31m46.265s</t>
+          <t>19h31m45.444s</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>+28°02'15.334"</t>
+          <t>+27°59'30.046"</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.112815903533275</v>
+        <v>5.112756152772428</v>
       </c>
       <c r="W12" t="n">
-        <v>0.489348307033483</v>
+        <v>0.4885469700016072</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1791,19 +1791,19 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>19h31m46.265s</t>
+          <t>19h31m45.444s</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>+28°02'15.334"</t>
+          <t>+27°59'30.046"</t>
         </is>
       </c>
       <c r="AD12" t="n">
-        <v>5.112815903533275</v>
+        <v>5.112756152772428</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.489348307033483</v>
+        <v>0.4885469700016072</v>
       </c>
     </row>
     <row r="13">
@@ -1858,31 +1858,31 @@
         <v>14</v>
       </c>
       <c r="Q13" t="n">
-        <v>292.8641335863423</v>
+        <v>292.8607377037025</v>
       </c>
       <c r="R13" t="n">
-        <v>28.16686088325451</v>
+        <v>28.12070435976541</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8966671083272044, 'y': 0.4106590254296342, 'z': 0.1653700749147576, 'ar': 5.106791332135402, 'dec': 0.49058064800361184, 'ar_deg': 292.59759018535, 'dec_deg': 28.108200641399996, 'pmra': 59.919, 'pmdec': 49.543}, 'proper motion': {'ar': 5.106798755379314, 'dec': 0.4905867857858364, 'pmra': 59.919, 'pmdec': 49.543}, 'precession': {'x': 0.34241903680035646, 'y': -0.812388569305978, 'z': 0.47198942329008003, 'ar': 5.111288495889664, 'dec': 0.491546013030812, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3424290674903333, 'y': -0.8124025659687252, 'z': 0.471958053798356, 'ar': 5.111292813848973, 'dec': 0.4915104310853502, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34251298692972476, 'y': -0.812356182278279, 'z': 0.47197699827294315, 'ar': 5.1114009641915565, 'dec': 0.4915319194385729, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3425341489694277, 'y': -0.8123100988808211, 'z': 0.4720409516620571, 'ar': 5.111443392082181, 'dec': 0.49160446236398936, 'R': 16.83498351001596, 'alt': 74.68678175086104}}</t>
+          <t>{'simbad': {'x': 0.8966671083272044, 'y': 0.4106590254296342, 'z': 0.1653700749147576, 'ar': 5.106791332135402, 'dec': 0.49058064800361184, 'ar_deg': 292.59759018535, 'dec_deg': 28.108200641399996, 'pmra': 59.919, 'pmdec': 49.543}, 'proper motion': {'ar': 5.106798794350649, 'dec': 0.49058681800861764, 'pmra': 59.919, 'pmdec': 49.543}, 'precession': {'x': 0.34243728385486777, 'y': -0.8123782682757786, 'z': 0.4719939150660184, 'ar': 5.111312106805635, 'dec': 0.49155110804057967, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3424475415962155, 'y': -0.8123943547152477, 'z': 0.47195878388001694, 'ar': 5.111315740915564, 'dec': 0.49151125919835925, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34248239224510846, 'y': -0.8123441934259912, 'z': 0.47201983264386616, 'ar': 5.1113742696771896, 'dec': 0.49158050655320096, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.342633623572114, 'y': -0.81268053453392, 'z': 0.4713306151604245, 'ar': 5.111384122749106, 'dec': 0.49079887905783054, 'R': -161.23220340281034, 'alt': -20.406503963370664}}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>19h31m27.392s</t>
+          <t>19h31m26.577s</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>+28°10'0.699"</t>
+          <t>+28°07'14.536"</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.111443392082182</v>
+        <v>5.111384122749106</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4916044623639894</v>
+        <v>0.4907988790578305</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1902,19 +1902,19 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>19h31m27.392s</t>
+          <t>19h31m26.577s</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>+28°10'0.699"</t>
+          <t>+28°07'14.536"</t>
         </is>
       </c>
       <c r="AD13" t="n">
-        <v>5.111443392082182</v>
+        <v>5.111384122749106</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4916044623639894</v>
+        <v>0.4907988790578305</v>
       </c>
     </row>
     <row r="14">
@@ -1969,31 +1969,31 @@
         <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>292.9997516654848</v>
+        <v>292.9963106739683</v>
       </c>
       <c r="R14" t="n">
-        <v>27.93150312247711</v>
+        <v>27.88578825172465</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.777517557821191, 'y': 0.49270069959091145, 'z': 0.3907844263816014, 'ar': 5.109153573699976, 'dec': 0.4864730088287785, 'ar_deg': 292.7329366571904, 'dec_deg': 27.872850252919445, 'pmra': -2.52, 'pmdec': -4.776}, 'proper motion': {'ar': 5.109153261502264, 'dec': 0.486472417139783, 'pmra': -2.52, 'pmdec': -4.776}, 'precession': {'x': 0.34509622853606453, 'y': -0.8133539957604461, 'z': 0.46836296889346485, 'ar': 5.113656286585935, 'dec': 0.48743704881028155, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3451063011026412, 'y': -0.8133677972730864, 'z': 0.4683315783698345, 'ar': 5.113660679987155, 'dec': 0.4874015208604354, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3451901784075423, 'y': -0.8133213217914388, 'z': 0.4683504758729254, 'ar': 5.113768617422879, 'dec': 0.48742290906771274, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.34521063621937687, 'y': -0.8132750945178352, 'z': 0.46841566719956995, 'ar': 5.11381037408845, 'dec': 0.4874966945183026, 'R': 17.015773858857028, 'alt': 74.53111755245327}}</t>
+          <t>{'simbad': {'x': 0.777517557821191, 'y': 0.49270069959091145, 'z': 0.3907844263816014, 'ar': 5.109153573699976, 'dec': 0.4864730088287785, 'ar_deg': 292.7329366571904, 'dec_deg': 27.872850252919445, 'pmra': -2.52, 'pmdec': -4.776}, 'proper motion': {'ar': 5.109153259863255, 'dec': 0.4864724140334713, 'pmra': -2.52, 'pmdec': -4.776}, 'precession': {'x': 0.3451145253891043, 'y': -0.8133436436850662, 'z': 0.46836746432961535, 'ar': 5.113679926704273, 'dec': 0.4874421368219153, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3451248259548925, 'y': -0.8133595169304606, 'z': 0.46833230801243364, 'ar': 5.113683641324351, 'dec': 0.4874023466659414, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3451598650510682, 'y': -0.8133095448200087, 'z': 0.4683932662438675, 'ar': 5.11374224223542, 'dec': 0.4874713401358394, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34530769174114295, 'y': -0.8136396025970619, 'z': 0.4677105890506425, 'ar': 5.113750317456953, 'dec': 0.4866988195065484, 'R': -159.35061614356644, 'alt': -20.64262569825102}}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>19h31m59.940s</t>
+          <t>19h31m59.115s</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>+27°55'53.411"</t>
+          <t>+27°53'8.838"</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.11381037408845</v>
+        <v>5.113750317456953</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4874966945183026</v>
+        <v>0.4866988195065484</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2013,19 +2013,19 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>19h31m59.940s</t>
+          <t>19h31m59.115s</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>+27°55'53.411"</t>
+          <t>+27°53'8.838"</t>
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>5.11381037408845</v>
+        <v>5.113750317456953</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4874966945183026</v>
+        <v>0.4866988195065484</v>
       </c>
     </row>
     <row r="15">
@@ -2080,31 +2080,31 @@
         <v>16</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.0654887744761</v>
+        <v>293.0620213712391</v>
       </c>
       <c r="R15" t="n">
-        <v>28.01046287372898</v>
+        <v>27.96460840468619</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304297468552, 'dec': 0.48784839102171207, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457761904891726, 'y': -0.8123625518328086, 'z': 0.46958056866791537, 'ar': 5.114803875110594, 'dec': 0.4888156514083681, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34578623798236413, 'y': -0.8123763928124935, 'z': 0.4695492242810808, 'ar': 5.114808206461244, 'dec': 0.48878014969893724, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3458700706390199, 'y': -0.8123298163853832, 'z': 0.4695680607190494, 'ar': 5.114916234136574, 'dec': 0.48880148440335175, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3458902676943984, 'y': -0.8122837951920118, 'z': 0.4696327914261934, 'ar': 5.114957703081091, 'dec': 0.4888748021542033, 'R': 16.903568546399473, 'alt': 74.62770160109957}}</t>
+          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294788903, 'dec': 0.4878483884142574, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457944407927454, 'y': -0.8123521795075654, 'z': 0.4695850734064496, 'ar': 5.114827496093109, 'dec': 0.48882075368222005, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34580471571667803, 'y': -0.8123680976892096, 'z': 0.4695499679958697, 'ar': 5.114831142552379, 'dec': 0.4887809920476209, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34583973628270637, 'y': -0.8123179581615049, 'z': 0.46961091518003656, 'ar': 5.114889883304163, 'dec': 0.48885002352994145, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3459882305183439, 'y': -0.8126502808609625, 'z': 0.4689260766468241, 'ar': 5.114897185478109, 'dec': 0.4880744906926529, 'R': -159.9706596911487, 'alt': -20.56431798399661}}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>19h32m15.717s</t>
+          <t>19h32m14.885s</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>+28°00'37.666"</t>
+          <t>+27°57'52.590"</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.11495770308109</v>
+        <v>5.114897185478109</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4888748021542033</v>
+        <v>0.4880744906926529</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2124,19 +2124,19 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>19h32m15.717s</t>
+          <t>19h32m14.885s</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>+28°00'37.666"</t>
+          <t>+27°57'52.590"</t>
         </is>
       </c>
       <c r="AD15" t="n">
-        <v>5.11495770308109</v>
+        <v>5.114897185478109</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4888748021542033</v>
+        <v>0.4880744906926529</v>
       </c>
     </row>
     <row r="16">
@@ -2191,31 +2191,31 @@
         <v>17</v>
       </c>
       <c r="Q16" t="n">
-        <v>292.9456834785678</v>
+        <v>292.9422599784591</v>
       </c>
       <c r="R16" t="n">
-        <v>28.00087695397707</v>
+        <v>27.95503137222923</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8246476002172156, 'y': 0.46232269168428036, 'z': 0.3259049926125543, 'ar': 5.108213685730425, 'dec': 0.48768627101390477, 'ar_deg': 292.67908504332, 'dec_deg': 27.942365055569997, 'pmra': -2.922, 'pmdec': -4.483}, 'proper motion': {'ar': 5.108213323729745, 'dec': 0.4876857156240875, 'pmra': -2.922, 'pmdec': -4.483}, 'precession': {'x': 0.34410697009882035, 'y': -0.8131563935211213, 'z': 0.4694327138207699, 'ar': 5.112712313783649, 'dec': 0.4886481918986652, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34411703175135194, 'y': -0.8131702558927016, 'z': 0.4694013244442725, 'ar': 5.112716689553077, 'dec': 0.48861264239850616, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3442009289967727, 'y': -0.8131238242821216, 'z': 0.46942024547581657, 'ar': 5.112824687081598, 'dec': 0.4886340710079335, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3442216571469016, 'y': -0.813077618266925, 'z': 0.46948507689214636, 'ar': 5.112866706206164, 'dec': 0.4887074962927006, 'R': 16.968668104169225, 'alt': 74.57165443684795}}</t>
+          <t>{'simbad': {'x': 0.8246476002172156, 'y': 0.46232269168428036, 'z': 0.3259049926125543, 'ar': 5.108213685730425, 'dec': 0.48768627101390477, 'ar_deg': 292.67908504332, 'dec_deg': 27.942365055569997, 'pmra': -2.922, 'pmdec': -4.483}, 'proper motion': {'ar': 5.108213321829275, 'dec': 0.48768571270834304, 'pmra': -2.922, 'pmdec': -4.483}, 'precession': {'x': 0.3441252468334543, 'y': -0.8131460711358052, 'z': 0.4694371965324207, 'ar': 5.1127359324603585, 'dec': 0.48865326877171256, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34413553623853205, 'y': -0.8131620106369475, 'z': 0.469402042128808, 'ar': 5.112739628506294, 'dec': 0.48861345519231664, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34417051404736865, 'y': -0.8131119961659484, 'z': 0.46946303257167876, 'ar': 5.112798187311309, 'dec': 0.4886825295180833, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3443193979283414, 'y': -0.8134438701406675, 'z': 0.46877843630102833, 'ar': 5.112806954857325, 'dec': 0.4879073399437085, 'R': -159.9023033730571, 'alt': -20.572926787735653}}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>19h31m46.964s</t>
+          <t>19h31m46.142s</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>+28°00'3.157"</t>
+          <t>+27°57'18.113"</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.112866706206164</v>
+        <v>5.112806954857325</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4887074962927006</v>
+        <v>0.4879073399437085</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2235,19 +2235,19 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>19h31m46.964s</t>
+          <t>19h31m46.142s</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>+28°00'3.157"</t>
+          <t>+27°57'18.113"</t>
         </is>
       </c>
       <c r="AD16" t="n">
-        <v>5.112866706206164</v>
+        <v>5.112806954857325</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4887074962927006</v>
+        <v>0.4879073399437085</v>
       </c>
     </row>
     <row r="17">
@@ -2302,31 +2302,31 @@
         <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.8384650577219</v>
+        <v>292.8350806470773</v>
       </c>
       <c r="R17" t="n">
-        <v>28.00073862333392</v>
+        <v>27.95488527820499</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8694148225537149, 'y': 0.37143602175460855, 'z': 0.32581152230546157, 'ar': 5.1063424438743725, 'dec': 0.4876879965612459, 'ar_deg': 292.57187078252, 'dec_deg': 27.942463922149997, 'pmra': 0.064, 'pmdec': -4.051}, 'proper motion': {'ar': 5.106342451803203, 'dec': 0.4876874946910364, 'pmra': 0.064, 'pmdec': -4.051}, 'precession': {'x': 0.34258473787692556, 'y': -0.8138001607318374, 'z': 0.4694305015299218, 'ar': 5.110840488588298, 'dec': 0.4886456863845889, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.3425948101700545, 'y': -0.8138140481326472, 'z': 0.4693990744627621, 'ar': 5.11084489982831, 'dec': 0.4886100942463286, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3426787636598612, 'y': -0.8137677438718387, 'z': 0.469418069496996, 'ar': 5.110952878440687, 'dec': 0.48863160663725635, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.34269997137339403, 'y': -0.8137213858567338, 'z': 0.4694829451855216, 'ar': 5.110995391743613, 'dec': 0.4887050819675213, 'R': 17.018643603504792, 'alt': 74.52864849750296}}</t>
+          <t>{'simbad': {'x': 0.8694148225537149, 'y': 0.37143602175460855, 'z': 0.32581152230546157, 'ar': 5.1063424438743725, 'dec': 0.4876879965612459, 'ar_deg': 292.57187078252, 'dec_deg': 27.942463922149997, 'pmra': 0.064, 'pmdec': -4.051}, 'proper motion': {'ar': 5.106342451844829, 'dec': 0.4876874920562648, 'pmra': 0.064, 'pmdec': -4.051}, 'precession': {'x': 0.34260303548062204, 'y': -0.8137898832256454, 'z': 0.46943496465330964, 'ar': 5.110864104201982, 'dec': 0.48865074106628237, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3426133357682781, 'y': -0.8138058483133378, 'z': 0.46939976928492577, 'ar': 5.11086783997103, 'dec': 0.48861088114691975, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3426482700785683, 'y': -0.8137559342332533, 'z': 0.46946079976109767, 'ar': 5.110926240329487, 'dec': 0.48868000071838047, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3427976059401328, 'y': -0.8140876431162116, 'z': 0.46877618400170973, 'ar': 5.110936322634626, 'dec': 0.4879047901219681, 'R': -159.90921062046434, 'alt': -20.572056616735466}}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>19h31m21.232s</t>
+          <t>19h31m20.419s</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>+28°00'2.659"</t>
+          <t>+27°57'17.587"</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.110995391743614</v>
+        <v>5.110936322634625</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4887050819675213</v>
+        <v>0.4879047901219681</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2346,19 +2346,19 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>19h31m21.232s</t>
+          <t>19h31m20.419s</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>+28°00'2.659"</t>
+          <t>+27°57'17.587"</t>
         </is>
       </c>
       <c r="AD17" t="n">
-        <v>5.110995391743614</v>
+        <v>5.110936322634625</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4887050819675213</v>
+        <v>0.4879047901219681</v>
       </c>
     </row>
     <row r="18">
@@ -2413,31 +2413,31 @@
         <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>293.0654887744761</v>
+        <v>293.0620213712391</v>
       </c>
       <c r="R18" t="n">
-        <v>28.01046287372898</v>
+        <v>27.96460840468619</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304297468552, 'dec': 0.48784839102171207, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457761904891726, 'y': -0.8123625518328086, 'z': 0.46958056866791537, 'ar': 5.114803875110594, 'dec': 0.4888156514083681, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34578623798236413, 'y': -0.8123763928124935, 'z': 0.4695492242810808, 'ar': 5.114808206461244, 'dec': 0.48878014969893724, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.3458700706390199, 'y': -0.8123298163853832, 'z': 0.4695680607190494, 'ar': 5.114916234136574, 'dec': 0.48880148440335175, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3458902676943984, 'y': -0.8122837951920118, 'z': 0.4696327914261934, 'ar': 5.114957703081091, 'dec': 0.4888748021542033, 'R': 16.903568546399473, 'alt': 74.62770160109957}}</t>
+          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294788903, 'dec': 0.4878483884142574, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457944407927454, 'y': -0.8123521795075654, 'z': 0.4695850734064496, 'ar': 5.114827496093109, 'dec': 0.48882075368222005, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34580471571667803, 'y': -0.8123680976892096, 'z': 0.4695499679958697, 'ar': 5.114831142552379, 'dec': 0.4887809920476209, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34583973628270637, 'y': -0.8123179581615049, 'z': 0.46961091518003656, 'ar': 5.114889883304163, 'dec': 0.48885002352994145, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3459882305183439, 'y': -0.8126502808609625, 'z': 0.4689260766468241, 'ar': 5.114897185478109, 'dec': 0.4880744906926529, 'R': -159.9706596911487, 'alt': -20.56431798399661}}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>19h32m15.717s</t>
+          <t>19h32m14.885s</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>+28°00'37.666"</t>
+          <t>+27°57'52.590"</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5.11495770308109</v>
+        <v>5.114897185478109</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4888748021542033</v>
+        <v>0.4880744906926529</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>19h32m15.717s</t>
+          <t>19h32m14.885s</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>+28°00'37.666"</t>
+          <t>+27°57'52.590"</t>
         </is>
       </c>
       <c r="AD18" t="n">
-        <v>5.11495770308109</v>
+        <v>5.114897185478109</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4888748021542033</v>
+        <v>0.4880744906926529</v>
       </c>
     </row>
     <row r="19">
@@ -2524,31 +2524,31 @@
         <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>293.0458847932506</v>
+        <v>293.0424300562003</v>
       </c>
       <c r="R19" t="n">
-        <v>27.84465756331504</v>
+        <v>27.79910366438327</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7234418187578643, 'y': 0.5063524164086586, 'z': 0.46929645776356116, 'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'ar_deg': 292.77879, 'dec_deg': 27.785839999999997, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.34602872880173624, 'y': -0.8137283328226086, 'z': 0.46702282514411697, 'ar': 5.114461739878586, 'dec': 0.48592086192858813, 'ang_zeta': 0.002869906213860859, 'ang_theta': 0.002482813524107537, 'ang_z': 0.002844449661875219}, 'nutation': {'x': 0.34603881713359613, 'y': -0.8137420631563439, 'z': 0.46699142571019303, 'ar': 5.114466162505934, 'dec': 0.4858853523919349, 'dpsi': 1.7987554939153125e-05, 'deps': 4.16291523419518e-05, 'epsm': 0.4090348060240813, 'w': -6.443742924775689}, 'aberration': {'x': 0.34612268074128477, 'y': -0.8136955582227934, 'z': 0.4670103086709793, 'ar': 5.114574021258248, 'dec': 0.4859067070024497, 'lambda_s': 2.0944942289712856, 'epsilon_m': 0.40902974380001444, 'omega_bar': 4.939640248446521}, 'refraction': {'x': 0.3461428967448957, 'y': -0.8136492749190376, 'z': 0.46707596005015756, 'ar': 5.114615549062205, 'dec': 0.4859809535701888, 'R': 17.0850704116205, 'alt': 74.47151281974877}}</t>
+          <t>{'simbad': {'x': 0.7234418187578643, 'y': 0.5063524164086586, 'z': 0.46929645776356116, 'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'ar_deg': 292.77879, 'dec_deg': 27.785839999999997, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.34604705510974415, 'y': -0.8137179508663043, 'z': 0.4670273354824282, 'ar': 5.114485407080641, 'dec': 0.48592596271293836, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3460573717973707, 'y': -0.8137337462863977, 'z': 0.4669921686488979, 'ar': 5.114489152966591, 'dec': 0.48588619257165666, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34609247895216483, 'y': -0.8136838471401759, 'z': 0.46705309432216385, 'ar': 5.114547774834383, 'dec': 0.4859550938923187, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3462390799295212, 'y': -0.8140116148960596, 'z': 0.46637280189122043, 'ar': 5.114555252525887, 'dec': 0.48518588804670876, 'R': -158.66595859775043, 'alt': -20.729670410430284}}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>19h32m11.012s</t>
+          <t>19h32m10.183s</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>+27°50'40.767"</t>
+          <t>+27°47'56.773"</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5.114615549062205</v>
+        <v>5.114555252525887</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4859809535701888</v>
+        <v>0.4851858880467087</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2568,19 +2568,19 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>19h32m11.012s</t>
+          <t>19h32m10.183s</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>+27°50'40.767"</t>
+          <t>+27°47'56.773"</t>
         </is>
       </c>
       <c r="AD19" t="n">
-        <v>5.114615549062205</v>
+        <v>5.114555252525887</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4859809535701888</v>
+        <v>0.4851858880467087</v>
       </c>
     </row>
   </sheetData>

--- a/backend/auxiliar/albireo.units.xlsx
+++ b/backend/auxiliar/albireo.units.xlsx
@@ -637,31 +637,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.9434952463879</v>
+        <v>292.9450616659929</v>
       </c>
       <c r="R2" t="n">
-        <v>27.97225827650365</v>
+        <v>27.9722122418775</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8288716931606084, 'y': 0.46603169252647836, 'z': 0.3094934213161437, 'ar': 5.108235152768638, 'dec': 0.4879883626478569, 'ar_deg': 292.68031501400833, 'dec_deg': 27.959673631221666, 'pmra': 4.915, 'pmdec': -11.127}, 'proper motion': {'ar': 5.108235764874782, 'dec': 0.48798697690929244, 'pmra': 4.915, 'pmdec': -11.127}, 'precession': {'x': 0.34408763648924356, 'y': -0.813008350493409, 'z': 0.4697032259238087, 'ar': 5.1127574980340835, 'dec': 0.48895458359740324, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34409792162362274, 'y': -0.813024302954251, 'z': 0.46966807762510043, 'ar': 5.112761184039457, 'dec': 0.4889147705525904, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3441328901301161, 'y': -0.8129742641730535, 'z': 0.46972907055341534, 'ar': 5.1128197540515385, 'dec': 0.48898385876421735, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3442819757754322, 'y': -0.8133066142648255, 'z': 0.4690439983085275, 'ar': 5.112828514349826, 'dec': 0.488208006143223, 'R': -160.03904402516613, 'alt': -20.555711625812464}}</t>
+          <t>{'simbad': {'x': 0.8288716931606084, 'y': 0.46603169252647836, 'z': 0.3094934213161437, 'ar': 5.108235152768638, 'dec': 0.4879883626478569, 'ar_deg': 292.68031501400833, 'dec_deg': 27.959673631221666, 'pmra': 4.915, 'pmdec': -11.127}, 'proper motion': {'ar': 5.10823576494002, 'dec': 0.48798697676159847, 'pmra': 4.915, 'pmdec': -11.127}, 'precession': {'x': 0.3440880094260904, 'y': -0.8130081398518701, 'z': 0.4697033173225333, 'ar': 5.112757980058873, 'dec': 0.48895468712731205, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3440979195634882, 'y': -0.8130242623062829, 'z': 0.4696681494985619, 'ar': 5.112761199835909, 'dec': 0.488914851963959, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34413147418926954, 'y': -0.8129745387999108, 'z': 0.46972963259240114, 'ar': 5.112818155764926, 'dec': 0.4889844954116079, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3443043576989555, 'y': -0.8132975486127773, 'z': 0.4690432887164638, 'ar': 5.112855853529401, 'dec': 0.4882072026874268, 'R': -160.47507890873985, 'alt': -20.500975505001563}}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>19h31m46.439s</t>
+          <t>19h31m46.815s</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>+27°58'20.130"</t>
+          <t>+27°58'19.964"</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.112828514349826</v>
+        <v>5.112855853529401</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4882080061432231</v>
+        <v>0.4882072026874268</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19h31m46.439s</t>
+          <t>19h31m46.815s</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>+27°58'20.130"</t>
+          <t>+27°58'19.964"</t>
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>5.112828514349826</v>
+        <v>5.112855853529401</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4882080061432231</v>
+        <v>0.4882072026874268</v>
       </c>
     </row>
     <row r="3">
@@ -748,31 +748,31 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>293.0766723175419</v>
+        <v>293.0782328833088</v>
       </c>
       <c r="R3" t="n">
-        <v>27.90849381995612</v>
+        <v>27.90845403061904</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7422745682107805, 'y': 0.5587448361350019, 'z': 0.3699090070273623, 'ar': 5.110557462390437, 'dec': 0.4868669741583784, 'ar_deg': 292.81337355406, 'dec_deg': 27.895422803579997, 'pmra': -2.408, 'pmdec': -5.353}, 'proper motion': {'ar': 5.110557162502015, 'dec': 0.48686630750442533, 'pmra': -2.408, 'pmdec': -5.353}, 'precession': {'x': 0.34618276093646844, 'y': -0.8126873040671964, 'z': 0.4687182968888632, 'ar': 5.115083387140881, 'dec': 0.48783925746774276, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3461930478579027, 'y': -0.8127031755381031, 'z': 0.46868317879473664, 'ar': 5.115087059508925, 'dec': 0.48779950220064183, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3462281063500663, 'y': -0.812653097516971, 'z': 0.46874411086361345, 'ar': 5.115145791239255, 'dec': 0.48786848058669124, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34637586598453346, 'y': -0.8129839022859497, 'z': 0.4680608230640261, 'ar': 5.1151528927296255, 'dec': 0.48709510643072385, 'R': -159.52512002665742, 'alt': -20.620536966481616}}</t>
+          <t>{'simbad': {'x': 0.7422745682107805, 'y': 0.5587448361350019, 'z': 0.3699090070273623, 'ar': 5.110557462390437, 'dec': 0.4868669741583784, 'ar_deg': 292.81337355406, 'dec_deg': 27.895422803579997, 'pmra': -2.408, 'pmdec': -5.353}, 'proper motion': {'ar': 5.110557162470053, 'dec': 0.4868663074333724, 'pmra': -2.408, 'pmdec': -5.353}, 'precession': {'x': 0.34618313384554456, 'y': -0.812687092143297, 'z': 0.4687183889123083, 'ar': 5.11508386954684, 'dec': 0.4878393616435365, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3461930457048286, 'y': -0.8127031349845594, 'z': 0.46868325070550965, 'ar': 5.115087075257967, 'dec': 0.4877995836060247, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34622669314058657, 'y': -0.8126533748739715, 'z': 0.46874467385014457, 'ar': 5.115144196324696, 'dec': 0.48786911792955956, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3463981365217807, 'y': -0.8129747667747688, 'z': 0.46806020937668613, 'ar': 5.115180129740452, 'dec': 0.4870944119757846, 'R': -159.92869576950548, 'alt': -20.569602217865064}}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>19h32m18.401s</t>
+          <t>19h32m18.776s</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>+27°54'30.578"</t>
+          <t>+27°54'30.435"</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.115152892729625</v>
+        <v>5.115180129740452</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4870951064307238</v>
+        <v>0.4870944119757847</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -792,19 +792,19 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19h32m18.401s</t>
+          <t>19h32m18.776s</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>+27°54'30.578"</t>
+          <t>+27°54'30.435"</t>
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>5.115152892729625</v>
+        <v>5.115180129740452</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4870951064307238</v>
+        <v>0.4870944119757847</v>
       </c>
     </row>
     <row r="4">
@@ -859,31 +859,31 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.9289704853442</v>
+        <v>292.9305327380487</v>
       </c>
       <c r="R4" t="n">
-        <v>27.92334370665498</v>
+        <v>27.92329730847692</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8212749203440782, 'y': 0.44606842217223996, 'z': 0.3557112142660058, 'ar': 5.107979706849363, 'dec': 0.4871328948917987, 'ar_deg': 292.66567904094, 'dec_deg': 27.910658939290002, 'pmra': 0.174, 'pmdec': -7.135}, 'proper motion': {'ar': 5.107979728519042, 'dec': 0.4871320063104508, 'pmra': 0.174, 'pmdec': -7.135}, 'precession': {'x': 0.3440378174809177, 'y': -0.8134654203881965, 'z': 0.4689477475962771, 'ar': 5.112503853159056, 'dec': 0.48809902666700133, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34404811585673994, 'y': -0.8134813386890254, 'z': 0.468912577758518, 'ar': 5.112507571731548, 'dec': 0.4880592073347674, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34408310630366745, 'y': -0.8134313792491866, 'z': 0.4689735677084421, 'ar': 5.112566093679954, 'dec': 0.4881282607646806, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3442316664167912, 'y': -0.8137623624703038, 'z': 0.4682898432196331, 'ar': 5.112575009446548, 'dec': 0.48735428584716695, 'R': -159.65205216253793, 'alt': -20.604494502021712}}</t>
+          <t>{'simbad': {'x': 0.8212749203440782, 'y': 0.44606842217223996, 'z': 0.3557112142660058, 'ar': 5.107979706849363, 'dec': 0.4871328948917987, 'ar_deg': 292.66567904094, 'dec_deg': 27.910658939290002, 'pmra': 0.174, 'pmdec': -7.135}, 'proper motion': {'ar': 5.107979728521351, 'dec': 0.4871320062157446, 'pmra': 0.174, 'pmdec': -7.135}, 'precession': {'x': 0.3440381908375517, 'y': -0.8134652097759631, 'z': 0.46894783902836457, 'ar': 5.11250433537555, 'dec': 0.48809913018761675, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3440481137336106, 'y': -0.8134812981068563, 'z': 0.46891264971925106, 'ar': 5.1125075874151324, 'dec': 0.4880592888079355, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3440816903152878, 'y': -0.8134316544168875, 'z': 0.4689741293316512, 'ar': 5.11256449574608, 'dec': 0.48812889665184656, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.344254002452617, 'y': -0.8137533254455236, 'z': 0.46828912769965647, 'ar': 5.11260227589999, 'dec': 0.487353476046193, 'R': -160.0900597454977, 'alt': -20.549295043358285}}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>19h31m42.953s</t>
+          <t>19h31m43.328s</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>+27°55'24.037"</t>
+          <t>+27°55'23.870"</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.112575009446548</v>
+        <v>5.11260227589999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.487354285847167</v>
+        <v>0.487353476046193</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -903,19 +903,19 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19h31m42.953s</t>
+          <t>19h31m43.328s</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>+27°55'24.037"</t>
+          <t>+27°55'23.870"</t>
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>5.112575009446548</v>
+        <v>5.11260227589999</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.487354285847167</v>
+        <v>0.487353476046193</v>
       </c>
     </row>
     <row r="5">
@@ -970,31 +970,31 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.7989237136473</v>
+        <v>292.8004933895133</v>
       </c>
       <c r="R5" t="n">
-        <v>28.00484590176009</v>
+        <v>28.00479324090471</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8963735742649112, 'y': 0.34536434220550455, 'z': 0.2779170496614177, 'ar': 5.105714263822092, 'dec': 0.48856493561150405, 'ar_deg': 292.53587871675, 'dec_deg': 27.992708828619996, 'pmra': -3.168, 'pmdec': -17.028}, 'proper motion': {'ar': 5.105713869284501, 'dec': 0.48856281497195375, 'pmra': -3.168, 'pmdec': -17.028}, 'precession': {'x': 0.34193000354632286, 'y': -0.8136275730613324, 'z': 0.47020638556822886, 'ar': 5.110232616103688, 'dec': 0.4895246131483851, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34194029545085153, 'y': -0.8136435852470094, 'z': 0.47017119279404684, 'ar': 5.110236337565825, 'dec': 0.4894847376267251, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3419751866721671, 'y': -0.8135936376052589, 'z': 0.4702322453307289, 'ar': 5.110294711588303, 'dec': 0.4895539143485893, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3421252768130011, 'y': -0.8139266706770769, 'z': 0.46954623811309176, 'ar': 5.110305265098848, 'dec': 0.48877676749935406, 'R': -160.30956080961235, 'alt': -20.521724778571865}}</t>
+          <t>{'simbad': {'x': 0.8963735742649112, 'y': 0.34536434220550455, 'z': 0.2779170496614177, 'ar': 5.105714263822092, 'dec': 0.48856493561150405, 'ar_deg': 292.53587871675, 'dec_deg': 27.992708828619996, 'pmra': -3.168, 'pmdec': -17.028}, 'proper motion': {'ar': 5.10571386924245, 'dec': 0.48856281474593305, 'pmra': -3.168, 'pmdec': -17.028}, 'precession': {'x': 0.3419303766555478, 'y': -0.8136273638118496, 'z': 0.4702064763237264, 'ar': 5.1102330977031, 'dec': 0.48952471598089636, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3419402933162705, 'y': -0.81364354461867, 'z': 0.4701712646548588, 'ar': 5.1102363531712545, 'dec': 0.48948481904846736, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34197376781693306, 'y': -0.813593909880503, 'z': 0.4702328060976249, 'ar': 5.110293109954197, 'dec': 0.48955454974785595, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3421477422699422, 'y': -0.8139176953431576, 'z': 0.4695454266275668, 'ar': 5.1103326611109, 'dec': 0.48877584839404076, 'R': -160.7800363834425, 'alt': -20.46283702107937}}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>19h31m11.742s</t>
+          <t>19h31m12.118s</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>+28°00'17.445"</t>
+          <t>+28°00'17.256"</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.110305265098848</v>
+        <v>5.110332661110899</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4887767674993541</v>
+        <v>0.4887758483940408</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1014,19 +1014,19 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>19h31m11.742s</t>
+          <t>19h31m12.118s</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>+28°00'17.445"</t>
+          <t>+28°00'17.256"</t>
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>5.110305265098848</v>
+        <v>5.110332661110899</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4887767674993541</v>
+        <v>0.4887758483940408</v>
       </c>
     </row>
     <row r="6">
@@ -1081,31 +1081,31 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.0887415545227</v>
+        <v>293.0902968931581</v>
       </c>
       <c r="R6" t="n">
-        <v>27.8479363622172</v>
+        <v>27.84789738782</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7163997389707878, 'y': 0.5530171797645631, 'z': 0.4253744384513908, 'ar': 5.110769316220216, 'dec': 0.48581166950323895, 'ar_deg': 292.82551188438, 'dec_deg': 27.83495830074, 'pmra': -36.737, 'pmdec': -40.447}, 'proper motion': {'ar': 5.110764741053716, 'dec': 0.48580663229934595, 'pmra': -36.737, 'pmdec': -40.447}, 'precession': {'x': 0.3465485359370537, 'y': -0.813070563436972, 'z': 0.4677823971807506, 'ar': 5.115294190539866, 'dec': 0.4867800630443047, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34655883617410893, 'y': -0.8130863853752011, 'z': 0.4677472640081788, 'ar': 5.115297892235452, 'dec': 0.48674031302481274, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3465939341091932, 'y': -0.8130363771855905, 'z': 0.4678081810011901, 'ar': 5.115356608790242, 'dec': 0.4868092356462446, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3467409202300235, 'y': -0.8133655462240139, 'z': 0.4671265593538301, 'ar': 5.115363540653145, 'dec': 0.4860381794065424, 'R': -159.0467883510952, 'alt': -20.681178121586683}}</t>
+          <t>{'simbad': {'x': 0.7163997389707878, 'y': 0.5530171797645631, 'z': 0.4253744384513908, 'ar': 5.110769316220216, 'dec': 0.48581166950323895, 'ar_deg': 292.82551188438, 'dec_deg': 27.83495830074, 'pmra': -36.737, 'pmdec': -40.447}, 'proper motion': {'ar': 5.110764740566088, 'dec': 0.48580663176247374, 'pmra': -36.737, 'pmdec': -40.447}, 'precession': {'x': 0.34654890904577546, 'y': -0.8130703516474838, 'z': 0.4677824888888209, 'ar': 5.115294672834926, 'dec': 0.48678016680481834, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3465588337352007, 'y': -0.8130863452643168, 'z': 0.4677473355400475, 'ar': 5.1152979074908895, 'dec': 0.486740393955828, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3465925211897791, 'y': -0.8130366559729136, 'z': 0.4678087432912029, 'ar': 5.11535501450935, 'dec': 0.4868098718433574, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34676312416177824, 'y': -0.8133564256696246, 'z': 0.4671259578994672, 'ar': 5.115390686433315, 'dec': 0.4860374991749872, 'R': -159.4460245047739, 'alt': -20.63054402871388}}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>19h32m21.298s</t>
+          <t>19h32m21.671s</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>+27°50'52.571"</t>
+          <t>+27°50'52.431"</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.115363540653145</v>
+        <v>5.115390686433315</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4860381794065424</v>
+        <v>0.4860374991749872</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19h32m21.298s</t>
+          <t>19h32m21.671s</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>+27°50'52.571"</t>
+          <t>+27°50'52.431"</t>
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>5.115363540653145</v>
+        <v>5.115390686433315</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4860381794065424</v>
+        <v>0.4860374991749872</v>
       </c>
     </row>
     <row r="7">
@@ -1192,31 +1192,31 @@
         <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>292.8510634113134</v>
+        <v>292.8526371735505</v>
       </c>
       <c r="R7" t="n">
-        <v>28.05383159961842</v>
+        <v>28.05378098135077</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.888463324428159, 'y': 0.39675014177223034, 'z': 0.23069947149869913, 'ar': 5.106625774103543, 'dec': 0.4894171549136055, 'ar_deg': 292.58810440886, 'dec_deg': 28.041537397849996, 'pmra': 5.823, 'pmdec': 2.919}, 'proper motion': {'ar': 5.1066264992905355, 'dec': 0.48941751844113934, 'pmra': 5.823, 'pmdec': 2.919}, 'precession': {'x': 0.34251417494180886, 'y': -0.8129443201105424, 'z': 0.47096238954288094, 'ar': 5.111143184000976, 'dec': 0.49038141570886906, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3425244497835351, 'y': -0.8129603574624642, 'z': 0.47092723269629383, 'ar': 5.111146858909088, 'dec': 0.4903415626890189, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.342559334474765, 'y': -0.8129102952402047, 'z': 0.47098827401188015, 'ar': 5.111205336776975, 'dec': 0.49041075830956354, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34270979508828203, 'y': -0.8132447614836855, 'z': 0.47030091884865743, 'ar': 5.111215274494116, 'dec': 0.4896317292133689, 'R': -160.69646343614474, 'alt': -20.47327710085124}}</t>
+          <t>{'simbad': {'x': 0.888463324428159, 'y': 0.39675014177223034, 'z': 0.23069947149869913, 'ar': 5.106625774103543, 'dec': 0.4894171549136055, 'ar_deg': 292.58810440886, 'dec_deg': 28.041537397849996, 'pmra': 5.823, 'pmdec': 2.919}, 'proper motion': {'ar': 5.106626499367827, 'dec': 0.4894175184798847, 'pmra': 5.823, 'pmdec': 2.919}, 'precession': {'x': 0.3425145474797414, 'y': -0.8129441103478596, 'z': 0.4709624806876609, 'ar': 5.111143665499295, 'dec': 0.4903815190296676, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3425244476997622, 'y': -0.8129603166132129, 'z': 0.4709273047298469, 'ar': 5.111146874711462, 'dec': 0.4903416443437867, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3425579163436494, 'y': -0.8129105673215905, 'z': 0.47098883584134726, 'ar': 5.11120373556162, 'dec': 0.49041139520382043, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34273229398390753, 'y': -0.8132357307293872, 'z': 0.4703001391936512, 'ar': 5.111242741826796, 'dec': 0.4896308457579368, 'R': -161.1563057420432, 'alt': -20.415941717928774}}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>19h31m24.255s</t>
+          <t>19h31m24.633s</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>+28°03'13.794"</t>
+          <t>+28°03'13.612"</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.111215274494116</v>
+        <v>5.111242741826796</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4896317292133689</v>
+        <v>0.4896308457579368</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1236,19 +1236,19 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>19h31m24.255s</t>
+          <t>19h31m24.633s</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>+28°03'13.794"</t>
+          <t>+28°03'13.612"</t>
         </is>
       </c>
       <c r="AD7" t="n">
-        <v>5.111215274494116</v>
+        <v>5.111242741826796</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4896317292133689</v>
+        <v>0.4896308457579368</v>
       </c>
     </row>
     <row r="8">
@@ -1303,31 +1303,31 @@
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>292.8519859082098</v>
+        <v>292.8535391596128</v>
       </c>
       <c r="R8" t="n">
-        <v>27.81516859252524</v>
+        <v>27.81511943174781</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.81317961965919, 'y': 0.3633906955498259, 'z': 0.4546274392937025, 'ar': 5.1066304095434, 'dec': 0.485243070890621, 'ar_deg': 292.58836999999994, 'dec_deg': 27.80238, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.1066304095434, 'dec': 0.485243070890621, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.3432877516035196, 'y': -0.8147434152480455, 'z': 0.4672758145987776, 'ar': 5.111159415325915, 'dec': 0.48620699133972667, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3432980837810607, 'y': -0.8147592687480247, 'z': 0.46724058006709523, 'ar': 5.111163222254804, 'dec': 0.48616713872292505, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3433331042300102, 'y': -0.8147095268839859, 'z': 0.46730157965093216, 'ar': 5.111221571990095, 'dec': 0.4862361338718668, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3434807013492832, 'y': -0.8150374395234536, 'z': 0.46662080962560615, 'ar': 5.111231375102298, 'dec': 0.48546627393688246, 'R': -158.80507674578328, 'alt': -20.711934164679075}}</t>
+          <t>{'simbad': {'x': 0.81317961965919, 'y': 0.3633906955498259, 'z': 0.4546274392937025, 'ar': 5.1066304095434, 'dec': 0.485243070890621, 'ar_deg': 292.58836999999994, 'dec_deg': 27.80238, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.1066304095434, 'dec': 0.485243070890621, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.3432881261679789, 'y': -0.8147432050550635, 'z': 0.4672759059149965, 'ar': 5.111159898059906, 'dec': 0.486207094625581, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3432980816333522, 'y': -0.8147592282721567, 'z': 0.46724065222561706, 'ar': 5.11116323779227, 'dec': 0.48616722033819154, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3433316874227683, 'y': -0.8147098026054076, 'z': 0.4673021398946215, 'ar': 5.11121997410837, 'dec': 0.48623676756156803, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34350295185300517, 'y': -0.8150284966248305, 'z': 0.4666200507455082, 'ar': 5.111258484453391, 'dec': 0.4854654159194534, 'R': -159.2576726823434, 'alt': -20.65440653135829}}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>19h31m24.477s</t>
+          <t>19h31m24.849s</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>+27°48'54.607"</t>
+          <t>+27°48'54.430"</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.111231375102298</v>
+        <v>5.11125848445339</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4854662739368825</v>
+        <v>0.4854654159194535</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>19h31m24.477s</t>
+          <t>19h31m24.849s</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>+27°48'54.607"</t>
+          <t>+27°48'54.430"</t>
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>5.111231375102298</v>
+        <v>5.11125848445339</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4854662739368825</v>
+        <v>0.4854654159194535</v>
       </c>
     </row>
     <row r="9">
@@ -1414,31 +1414,31 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>292.9522705160198</v>
+        <v>292.9538373948023</v>
       </c>
       <c r="R9" t="n">
-        <v>27.97793587805419</v>
+        <v>27.97789020831811</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8262121933548849, 'y': 0.4741925761710259, 'z': 0.304162476738989, 'ar': 5.108389365583733, 'dec': 0.4880861207025677, 'ar_deg': 292.68915075746, 'dec_deg': 27.96527475517, 'pmra': -1.078, 'pmdec': -1.54}, 'proper motion': {'ar': 5.1083892313313575, 'dec': 0.4880859289134611, 'pmra': -1.078, 'pmdec': -1.54}, 'precession': {'x': 0.3441940402483271, 'y': -0.8129126522249832, 'z': 0.46979089232346405, 'ar': 5.11291075090061, 'dec': 0.48905388841738817, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3442043231261515, 'y': -0.8129286069516023, 'z': 0.4697557492367659, 'ar': 5.112914430499913, 'dec': 0.4890140791728566, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34423929194842107, 'y': -0.8128785523302691, 'z': 0.4698167398468213, 'ar': 5.1129730165660305, 'dec': 0.4890831684092978, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3443884088231913, 'y': -0.8132110722502431, 'z': 0.46913151230528083, 'ar': 5.112981671697653, 'dec': 0.48830709898389635, 'R': -160.08357034593493, 'alt': -20.550111073496506}}</t>
+          <t>{'simbad': {'x': 0.8262121933548849, 'y': 0.4741925761710259, 'z': 0.304162476738989, 'ar': 5.108389365583733, 'dec': 0.4880861207025677, 'ar_deg': 292.68915075746, 'dec_deg': 27.96527475517, 'pmra': -1.078, 'pmdec': -1.54}, 'proper motion': {'ar': 5.10838923131705, 'dec': 0.4880859288930199, 'pmra': -1.078, 'pmdec': -1.54}, 'precession': {'x': 0.34419441301499076, 'y': -0.8129124414908462, 'z': 0.46979098386267215, 'ar': 5.1129112328226825, 'dec': 0.48905399211190576, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3442043209781056, 'y': -0.8129285662687268, 'z': 0.46975582121382353, 'ar': 5.112914446227553, 'dec': 0.48901416070587694, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34423787604816103, 'y': -0.8128788269611255, 'z': 0.46981730212089423, 'ar': 5.11297141828746, 'dec': 0.4890838053566425, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34441079356717585, 'y': -0.8132019982194064, 'z': 0.4691308083747987, 'ar': 5.113009018891388, 'dec': 0.4883063018966332, 'R': -160.5177351551529, 'alt': -20.49563376796375}}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>19h31m48.545s</t>
+          <t>19h31m48.921s</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>+27°58'40.569"</t>
+          <t>+27°58'40.405"</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.112981671697653</v>
+        <v>5.113009018891388</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4883070989838963</v>
+        <v>0.4883063018966333</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1458,19 +1458,19 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>19h31m48.545s</t>
+          <t>19h31m48.921s</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>+27°58'40.569"</t>
+          <t>+27°58'40.405"</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>5.112981671697653</v>
+        <v>5.113009018891388</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4883070989838963</v>
+        <v>0.4883063018966333</v>
       </c>
     </row>
     <row r="10">
@@ -1525,31 +1525,31 @@
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>292.9219718641425</v>
+        <v>292.9235354446233</v>
       </c>
       <c r="R10" t="n">
-        <v>27.93858399512261</v>
+        <v>27.93853720568747</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8290374353702145, 'y': 0.4428595014714414, 'z': 0.34142699470200644, 'ar': 5.107858546571783, 'dec': 0.48739888718441626, 'ar_deg': 292.65873706839, 'dec_deg': 27.92589917504, 'pmra': -1.631, 'pmdec': -0.266}, 'proper motion': {'ar': 5.107858343449683, 'dec': 0.48739885405720695, 'pmra': -1.631, 'pmdec': -0.266}, 'precession': {'x': 0.34388969074256504, 'y': -0.8133922998014255, 'z': 0.46918317022750416, 'ar': 5.112381619218151, 'dec': 0.48836559413558833, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3438999861619242, 'y': -0.813408231509119, 'z': 0.4691480026932181, 'ar': 5.1123853319063075, 'dec': 0.4883257717740321, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3439349651032287, 'y': -0.8133582581331187, 'z': 0.46920899789550063, 'ar': 5.112443851803717, 'dec': 0.48839484092883584, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34408373740529236, 'y': -0.8136896491325292, 'z': 0.46852485157970736, 'ar': 5.112452860463479, 'dec': 0.4876202790598808, 'R': -159.77328394485457, 'alt': -20.589191803593593}}</t>
+          <t>{'simbad': {'x': 0.8290374353702145, 'y': 0.4428595014714414, 'z': 0.34142699470200644, 'ar': 5.107858546571783, 'dec': 0.48739888718441626, 'ar_deg': 292.65873706839, 'dec_deg': 27.92589917504, 'pmra': -1.631, 'pmdec': -0.266}, 'proper motion': {'ar': 5.107858343428034, 'dec': 0.4873988540536762, 'pmra': -1.631, 'pmdec': -0.266}, 'precession': {'x': 0.34389006395544547, 'y': -0.8133920892488692, 'z': 0.4691832617006701, 'ar': 5.11238210131995, 'dec': 0.4883656977173774, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.34389998400283345, 'y': -0.813408190874557, 'z': 0.46914807472804554, 'ar': 5.11238534757242, 'dec': 0.48832585334263534, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3439335488621983, 'y': -0.8133585329472639, 'z': 0.46920955963079974, 'ar': 5.1124422534947165, 'dec': 0.48839547703297714, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34410609159247413, 'y': -0.8136806113070127, 'z': 0.46852413012778493, 'ar': 5.112480150090989, 'dec': 0.4876194624301825, 'R': -160.2133382310432, 'alt': -20.533803193021196}}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>19h31m41.273s</t>
+          <t>19h31m41.649s</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>+27°56'18.902"</t>
+          <t>+27°56'18.734"</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.112452860463478</v>
+        <v>5.112480150090989</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4876202790598808</v>
+        <v>0.4876194624301825</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1569,19 +1569,19 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>19h31m41.273s</t>
+          <t>19h31m41.649s</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>+27°56'18.902"</t>
+          <t>+27°56'18.734"</t>
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>5.112452860463478</v>
+        <v>5.112480150090989</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4876202790598808</v>
+        <v>0.4876194624301825</v>
       </c>
     </row>
     <row r="11">
@@ -1636,31 +1636,31 @@
         <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.0020475812324</v>
+        <v>293.0036246186693</v>
       </c>
       <c r="R11" t="n">
-        <v>28.09674877051098</v>
+        <v>28.09670465704639</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8261113084204398, 'y': 0.5308830988331615, 'z': 0.1889530139298358, 'ar': 5.109264509843677, 'dec': 0.49016242167152185, 'ar_deg': 292.73929283001996, 'dec_deg': 28.08423803769, 'pmra': -2.519, 'pmdec': -2.657}, 'proper motion': {'ar': 5.1092641961314955, 'dec': 0.49016209077304373, 'pmra': -2.519, 'pmdec': -2.657}, 'precession': {'x': 0.3445183736312226, 'y': -0.811712683676145, 'z': 0.47162443680302196, 'ar': 5.1137800316735476, 'dec': 0.49113205623143574, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3445286228419205, 'y': -0.8117287178759462, 'z': 0.47158935168016863, 'ar': 5.113783626561465, 'dec': 0.49109226855994503, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34456354397680083, 'y': -0.81167845707486, 'z': 0.4716503434565921, 'ar': 5.11384235117223, 'dec': 0.4911614357633781, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34471388770996336, 'y': -0.8120143443987279, 'z': 0.47096182447262747, 'ar': 5.113850445377594, 'dec': 0.4903807751510853, 'R': -161.0295424881537, 'alt': -20.431720633749322}}</t>
+          <t>{'simbad': {'x': 0.8261113084204398, 'y': 0.5308830988331615, 'z': 0.1889530139298358, 'ar': 5.109264509843677, 'dec': 0.49016242167152185, 'ar_deg': 292.73929283001996, 'dec_deg': 28.08423803769, 'pmra': -2.519, 'pmdec': -2.657}, 'proper motion': {'ar': 5.10926419609806, 'dec': 0.4901620907377761, 'pmra': -2.519, 'pmdec': -2.657}, 'precession': {'x': 0.344518745162723, 'y': -0.8117124727564865, 'z': 0.4716245284154047, 'ar': 5.113780512970874, 'dec': 0.4911321601239684, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3445286206862102, 'y': -0.8117286770441637, 'z': 0.4715894235372431, 'ar': 5.113783642402272, 'dec': 0.49109235004734136, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34456212829426647, 'y': -0.8116787305896236, 'z': 0.4716509069786072, 'ar': 5.1138407521379206, 'dec': 0.491162074832639, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3447363795669349, 'y': -0.812005189786025, 'z': 0.4709611452802057, 'ar': 5.113877969873293, 'dec': 0.4903800052258837, 'R': -161.4554612333064, 'alt': -20.378783977494592}}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>19h32m0.491s</t>
+          <t>19h32m0.870s</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>+28°05'48.296"</t>
+          <t>+28°05'48.137"</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.113850445377594</v>
+        <v>5.113877969873293</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4903807751510853</v>
+        <v>0.4903800052258837</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>19h32m0.491s</t>
+          <t>19h32m0.870s</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>+28°05'48.296"</t>
+          <t>+28°05'48.137"</t>
         </is>
       </c>
       <c r="AD11" t="n">
-        <v>5.113850445377594</v>
+        <v>5.113877969873293</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4903807751510853</v>
+        <v>0.4903800052258837</v>
       </c>
     </row>
     <row r="12">
@@ -1747,31 +1747,31 @@
         <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.9393492334041</v>
+        <v>292.9409173355272</v>
       </c>
       <c r="R12" t="n">
-        <v>27.99167947499653</v>
+        <v>27.99163315128364</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8358430514289432, 'y': 0.46551566672851213, 'z': 0.2909665915672484, 'ar': 5.108164618902049, 'dec': 0.48832736255872994, 'ar_deg': 292.67627372114, 'dec_deg': 27.979096895370002, 'pmra': -1.855, 'pmdec': -4.197}, 'proper motion': {'ar': 5.1081643878833525, 'dec': 0.4883268398711452, 'pmra': -1.855, 'pmdec': -4.197}, 'precession': {'x': 0.34396656244643986, 'y': -0.8128862757726989, 'z': 0.4700030920953299, 'ar': 5.112685081381336, 'dec': 0.48929428114753243, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34397684332664474, 'y': -0.81290224416947, 'z': 0.4699679485659379, 'ar': 5.112688758113251, 'dec': 0.4892544663071435, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3440117991058725, 'y': -0.8128521831593198, 'z': 0.4700289463523157, 'ar': 5.112747332589255, 'dec': 0.4893235725156055, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34416113596818265, 'y': -0.8131850624106695, 'z': 0.4693433356949313, 'ar': 5.112756152772428, 'dec': 0.4885469700016072, 'R': -160.19381897683834, 'alt': -20.536254799718844}}</t>
+          <t>{'simbad': {'x': 0.8358430514289432, 'y': 0.46551566672851213, 'z': 0.2909665915672484, 'ar': 5.108164618902049, 'dec': 0.48832736255872994, 'ar_deg': 292.67627372114, 'dec_deg': 27.979096895370002, 'pmra': -1.855, 'pmdec': -4.197}, 'proper motion': {'ar': 5.1081643878587295, 'dec': 0.4883268398154364, 'pmra': -1.855, 'pmdec': -4.197}, 'precession': {'x': 0.3439669351386683, 'y': -0.812886065196635, 'z': 0.4700031835428815, 'ar': 5.112685563205163, 'dec': 0.48929438475147957, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.34397684117699856, 'y': -0.8129022034858271, 'z': 0.4699680205096741, 'ar': 5.11268877383178, 'dec': 0.4892545478128465, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34401038288699454, 'y': -0.8128524574299992, 'z': 0.4700295085587235, 'ar': 5.112745733856254, 'dec': 0.4893242094678124, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3441835394395924, 'y': -0.8131759923681032, 'z': 0.46934262177537756, 'ar': 5.112783521317484, 'dec': 0.4885461615002955, 'R': -160.63136242517, 'alt': -20.481415744369478}}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>19h31m45.444s</t>
+          <t>19h31m45.820s</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>+27°59'30.046"</t>
+          <t>+27°59'29.879"</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.112756152772428</v>
+        <v>5.112783521317483</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4885469700016072</v>
+        <v>0.4885461615002955</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1791,19 +1791,19 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>19h31m45.444s</t>
+          <t>19h31m45.820s</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>+27°59'30.046"</t>
+          <t>+27°59'29.879"</t>
         </is>
       </c>
       <c r="AD12" t="n">
-        <v>5.112756152772428</v>
+        <v>5.112783521317483</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.4885469700016072</v>
+        <v>0.4885461615002955</v>
       </c>
     </row>
     <row r="13">
@@ -1858,31 +1858,31 @@
         <v>14</v>
       </c>
       <c r="Q13" t="n">
-        <v>292.8607377037025</v>
+        <v>292.8623173063237</v>
       </c>
       <c r="R13" t="n">
-        <v>28.12070435976541</v>
+        <v>28.12065380659048</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8966671083272044, 'y': 0.4106590254296342, 'z': 0.1653700749147576, 'ar': 5.106791332135402, 'dec': 0.49058064800361184, 'ar_deg': 292.59759018535, 'dec_deg': 28.108200641399996, 'pmra': 59.919, 'pmdec': 49.543}, 'proper motion': {'ar': 5.106798794350649, 'dec': 0.49058681800861764, 'pmra': 59.919, 'pmdec': 49.543}, 'precession': {'x': 0.34243728385486777, 'y': -0.8123782682757786, 'z': 0.4719939150660184, 'ar': 5.111312106805635, 'dec': 0.49155110804057967, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3424475415962155, 'y': -0.8123943547152477, 'z': 0.47195878388001694, 'ar': 5.111315740915564, 'dec': 0.49151125919835925, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34248239224510846, 'y': -0.8123441934259912, 'z': 0.47201983264386616, 'ar': 5.1113742696771896, 'dec': 0.49158050655320096, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.342633623572114, 'y': -0.81268053453392, 'z': 0.4713306151604245, 'ar': 5.111384122749106, 'dec': 0.49079887905783054, 'R': -161.23220340281034, 'alt': -20.406503963370664}}</t>
+          <t>{'simbad': {'x': 0.8966671083272044, 'y': 0.4106590254296342, 'z': 0.1653700749147576, 'ar': 5.106791332135402, 'dec': 0.49058064800361184, 'ar_deg': 292.59759018535, 'dec_deg': 28.108200641399996, 'pmra': 59.919, 'pmdec': 49.543}, 'proper motion': {'ar': 5.106798795145982, 'dec': 0.4905868186662255, 'pmra': 59.919, 'pmdec': 49.543}, 'precession': {'x': 0.34243765624013806, 'y': -0.8123780580448775, 'z': 0.4719940067373683, 'ar': 5.111312588661198, 'dec': 0.4915512120232982, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.34244753998324684, 'y': -0.812394313258799, 'z': 0.47195885641037316, 'ar': 5.1113157574948005, 'dec': 0.4915113414677125, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3424809743766186, 'y': -0.8123444641145623, 'z': 0.4720203955471274, 'ar': 5.111372668405846, 'dec': 0.4915811450639365, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34265619001879744, 'y': -0.8126714712613468, 'z': 0.4713298369928637, 'ar': 5.11141169201572, 'dec': 0.4907979967384806, 'R': -161.69178857743105, 'alt': -20.349509000929707}}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>19h31m26.577s</t>
+          <t>19h31m26.956s</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>+28°07'14.536"</t>
+          <t>+28°07'14.354"</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.111384122749106</v>
+        <v>5.11141169201572</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4907988790578305</v>
+        <v>0.4907979967384806</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1902,19 +1902,19 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>19h31m26.577s</t>
+          <t>19h31m26.956s</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>+28°07'14.536"</t>
+          <t>+28°07'14.354"</t>
         </is>
       </c>
       <c r="AD13" t="n">
-        <v>5.111384122749106</v>
+        <v>5.11141169201572</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4907988790578305</v>
+        <v>0.4907979967384806</v>
       </c>
     </row>
     <row r="14">
@@ -1969,31 +1969,31 @@
         <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>292.9963106739683</v>
+        <v>292.9978695154466</v>
       </c>
       <c r="R14" t="n">
-        <v>27.88578825172465</v>
+        <v>27.88574503738063</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.777517557821191, 'y': 0.49270069959091145, 'z': 0.3907844263816014, 'ar': 5.109153573699976, 'dec': 0.4864730088287785, 'ar_deg': 292.7329366571904, 'dec_deg': 27.872850252919445, 'pmra': -2.52, 'pmdec': -4.776}, 'proper motion': {'ar': 5.109153259863255, 'dec': 0.4864724140334713, 'pmra': -2.52, 'pmdec': -4.776}, 'precession': {'x': 0.3451145253891043, 'y': -0.8133436436850662, 'z': 0.46836746432961535, 'ar': 5.113679926704273, 'dec': 0.4874421368219153, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3451248259548925, 'y': -0.8133595169304606, 'z': 0.46833230801243364, 'ar': 5.113683641324351, 'dec': 0.4874023466659414, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3451598650510682, 'y': -0.8133095448200087, 'z': 0.4683932662438675, 'ar': 5.11374224223542, 'dec': 0.4874713401358394, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.34530769174114295, 'y': -0.8136396025970619, 'z': 0.4677105890506425, 'ar': 5.113750317456953, 'dec': 0.4866988195065484, 'R': -159.35061614356644, 'alt': -20.64262569825102}}</t>
+          <t>{'simbad': {'x': 0.777517557821191, 'y': 0.49270069959091145, 'z': 0.3907844263816014, 'ar': 5.109153573699976, 'dec': 0.4864730088287785, 'ar_deg': 292.7329366571904, 'dec_deg': 27.872850252919445, 'pmra': -2.52, 'pmdec': -4.776}, 'proper motion': {'ar': 5.109153259829807, 'dec': 0.4864724139700771, 'pmra': -2.52, 'pmdec': -4.776}, 'precession': {'x': 0.34511489879066815, 'y': -0.8133434324124187, 'z': 0.46836755607566627, 'ar': 5.11368040915581, 'dec': 0.48744224066181013, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3451248237968405, 'y': -0.8133594764020093, 'z': 0.4683323799890944, 'ar': 5.113683656993178, 'dec': 0.4874024281287522, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34515845048534766, 'y': -0.8133098214487507, 'z': 0.46839382830429727, 'ar': 5.113740646092717, 'dec': 0.48747197629627453, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3453299660610592, 'y': -0.8136305322630063, 'z': 0.46770992239815135, 'ar': 5.1137775243732655, 'dec': 0.4866980652739612, 'R': -159.7720768437363, 'alt': -20.5893440791735}}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>19h31m59.115s</t>
+          <t>19h31m59.489s</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>+27°53'8.838"</t>
+          <t>+27°53'8.682"</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.113750317456953</v>
+        <v>5.113777524373265</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4866988195065484</v>
+        <v>0.4866980652739612</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2013,19 +2013,19 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>19h31m59.115s</t>
+          <t>19h31m59.489s</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>+27°53'8.838"</t>
+          <t>+27°53'8.682"</t>
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>5.113750317456953</v>
+        <v>5.113777524373265</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4866988195065484</v>
+        <v>0.4866980652739612</v>
       </c>
     </row>
     <row r="15">
@@ -2080,31 +2080,31 @@
         <v>16</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.0620213712391</v>
+        <v>293.0635867921236</v>
       </c>
       <c r="R15" t="n">
-        <v>27.96460840468619</v>
+        <v>27.96456767618079</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294788903, 'dec': 0.4878483884142574, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457944407927454, 'y': -0.8123521795075654, 'z': 0.4695850734064496, 'ar': 5.114827496093109, 'dec': 0.48882075368222005, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34580471571667803, 'y': -0.8123680976892096, 'z': 0.4695499679958697, 'ar': 5.114831142552379, 'dec': 0.4887809920476209, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34583973628270637, 'y': -0.8123179581615049, 'z': 0.46961091518003656, 'ar': 5.114889883304163, 'dec': 0.48885002352994145, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3459882305183439, 'y': -0.8126502808609625, 'z': 0.4689260766468241, 'ar': 5.114897185478109, 'dec': 0.4880744906926529, 'R': -159.9706596911487, 'alt': -20.56431798399661}}</t>
+          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294734216, 'dec': 0.48784838836104394, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457948132443118, 'y': -0.8123519678216704, 'z': 0.4695851653423386, 'ar': 5.114827978154119, 'dec': 0.4888208578131763, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3458047135435243, 'y': -0.8123680570576788, 'z': 0.4695500398928888, 'ar': 5.114831158312245, 'dec': 0.4887810734798783, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3458383224557802, 'y': -0.8123182344790318, 'z': 0.4696114784093773, 'ar': 5.1148882872888635, 'dec': 0.488850661480278, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3460105640004008, 'y': -0.8126411342452514, 'z': 0.46892544880046283, 'ar': 5.114924507226723, 'dec': 0.48807377984613426, 'R': -160.37908596988487, 'alt': -20.51300490115246}}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>19h32m14.885s</t>
+          <t>19h32m15.261s</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>+27°57'52.590"</t>
+          <t>+27°57'52.444"</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.114897185478109</v>
+        <v>5.114924507226724</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4880744906926529</v>
+        <v>0.4880737798461343</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2124,19 +2124,19 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>19h32m14.885s</t>
+          <t>19h32m15.261s</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>+27°57'52.590"</t>
+          <t>+27°57'52.444"</t>
         </is>
       </c>
       <c r="AD15" t="n">
-        <v>5.114897185478109</v>
+        <v>5.114924507226724</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4880744906926529</v>
+        <v>0.4880737798461343</v>
       </c>
     </row>
     <row r="16">
@@ -2191,31 +2191,31 @@
         <v>17</v>
       </c>
       <c r="Q16" t="n">
-        <v>292.9422599784591</v>
+        <v>292.9438249121852</v>
       </c>
       <c r="R16" t="n">
-        <v>27.95503137222923</v>
+        <v>27.95498538520556</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8246476002172156, 'y': 0.46232269168428036, 'z': 0.3259049926125543, 'ar': 5.108213685730425, 'dec': 0.48768627101390477, 'ar_deg': 292.67908504332, 'dec_deg': 27.942365055569997, 'pmra': -2.922, 'pmdec': -4.483}, 'proper motion': {'ar': 5.108213321829275, 'dec': 0.48768571270834304, 'pmra': -2.922, 'pmdec': -4.483}, 'precession': {'x': 0.3441252468334543, 'y': -0.8131460711358052, 'z': 0.4694371965324207, 'ar': 5.1127359324603585, 'dec': 0.48865326877171256, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34413553623853205, 'y': -0.8131620106369475, 'z': 0.469402042128808, 'ar': 5.112739628506294, 'dec': 0.48861345519231664, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34417051404736865, 'y': -0.8131119961659484, 'z': 0.46946303257167876, 'ar': 5.112798187311309, 'dec': 0.4886825295180833, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3443193979283414, 'y': -0.8134438701406675, 'z': 0.46877843630102833, 'ar': 5.112806954857325, 'dec': 0.4879073399437085, 'R': -159.9023033730571, 'alt': -20.572926787735653}}</t>
+          <t>{'simbad': {'x': 0.8246476002172156, 'y': 0.46232269168428036, 'z': 0.3259049926125543, 'ar': 5.108213685730425, 'dec': 0.48768627101390477, 'ar_deg': 292.67908504332, 'dec_deg': 27.942365055569997, 'pmra': -2.922, 'pmdec': -4.483}, 'proper motion': {'ar': 5.10821332179049, 'dec': 0.4876857126488381, 'pmra': -2.922, 'pmdec': -4.483}, 'precession': {'x': 0.3441256198244492, 'y': -0.813145860469084, 'z': 0.4694372880187853, 'ar': 5.112736414474311, 'dec': 0.4886533723842878, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3441355340768354, 'y': -0.8131619700105905, 'z': 0.4694021140921155, 'ar': 5.112739644183816, 'dec': 0.48861353669239344, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34416909808183627, 'y': -0.8131122710333902, 'z': 0.4694635945634746, 'ar': 5.112796589141579, 'dec': 0.4886831660099981, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3443417622666342, 'y': -0.813434811843479, 'z': 0.4687777273295657, 'ar': 5.112834268103421, 'dec': 0.48790653731873235, 'R': -160.33813819437984, 'alt': -20.518139846803614}}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>19h31m46.142s</t>
+          <t>19h31m46.518s</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>+27°57'18.113"</t>
+          <t>+27°57'17.947"</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.112806954857325</v>
+        <v>5.112834268103421</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4879073399437085</v>
+        <v>0.4879065373187323</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2235,19 +2235,19 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>19h31m46.142s</t>
+          <t>19h31m46.518s</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>+27°57'18.113"</t>
+          <t>+27°57'17.947"</t>
         </is>
       </c>
       <c r="AD16" t="n">
-        <v>5.112806954857325</v>
+        <v>5.112834268103421</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4879073399437085</v>
+        <v>0.4879065373187323</v>
       </c>
     </row>
     <row r="17">
@@ -2302,31 +2302,31 @@
         <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.8350806470773</v>
+        <v>292.8366458976371</v>
       </c>
       <c r="R17" t="n">
-        <v>27.95488527820499</v>
+        <v>27.95483453900924</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.8694148225537149, 'y': 0.37143602175460855, 'z': 0.32581152230546157, 'ar': 5.1063424438743725, 'dec': 0.4876879965612459, 'ar_deg': 292.57187078252, 'dec_deg': 27.942463922149997, 'pmra': 0.064, 'pmdec': -4.051}, 'proper motion': {'ar': 5.106342451844829, 'dec': 0.4876874920562648, 'pmra': 0.064, 'pmdec': -4.051}, 'precession': {'x': 0.34260303548062204, 'y': -0.8137898832256454, 'z': 0.46943496465330964, 'ar': 5.110864104201982, 'dec': 0.48865074106628237, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3426133357682781, 'y': -0.8138058483133378, 'z': 0.46939976928492577, 'ar': 5.11086783997103, 'dec': 0.48861088114691975, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.3426482700785683, 'y': -0.8137559342332533, 'z': 0.46946079976109767, 'ar': 5.110926240329487, 'dec': 0.48868000071838047, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3427976059401328, 'y': -0.8140876431162116, 'z': 0.46877618400170973, 'ar': 5.110936322634626, 'dec': 0.4879047901219681, 'R': -159.90921062046434, 'alt': -20.572056616735466}}</t>
+          <t>{'simbad': {'x': 0.8694148225537149, 'y': 0.37143602175460855, 'z': 0.32581152230546157, 'ar': 5.1063424438743725, 'dec': 0.4876879965612459, 'ar_deg': 292.57187078252, 'dec_deg': 27.942463922149997, 'pmra': 0.064, 'pmdec': -4.051}, 'proper motion': {'ar': 5.106342451845679, 'dec': 0.48768749200249395, 'pmra': 0.064, 'pmdec': -4.051}, 'precession': {'x': 0.34260340889753294, 'y': -0.813789673474818, 'z': 0.4694350557399169, 'ar': 5.110864586153423, 'dec': 0.48865084422597505, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3426133336357284, 'y': -0.8138058076663761, 'z': 0.46939984131174395, 'ar': 5.110867855606884, 'dec': 0.4886109627188122, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3426468521744683, 'y': -0.8137562076543693, 'z': 0.4694613607091717, 'ar': 5.110924640143397, 'dec': 0.48868063602735873, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3428200068049105, 'y': -0.8140786605933048, 'z': 0.4687754017660173, 'ar': 5.110963641410514, 'dec': 0.4879039045559424, 'R': -160.36980923815062, 'alt': -20.514168038232476}}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>19h31m20.419s</t>
+          <t>19h31m20.795s</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>+27°57'17.587"</t>
+          <t>+27°57'17.404"</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.110936322634625</v>
+        <v>5.110963641410514</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4879047901219681</v>
+        <v>0.4879039045559424</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2346,19 +2346,19 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>19h31m20.419s</t>
+          <t>19h31m20.795s</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>+27°57'17.587"</t>
+          <t>+27°57'17.404"</t>
         </is>
       </c>
       <c r="AD17" t="n">
-        <v>5.110936322634625</v>
+        <v>5.110963641410514</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4879047901219681</v>
+        <v>0.4879039045559424</v>
       </c>
     </row>
     <row r="18">
@@ -2413,31 +2413,31 @@
         <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>293.0620213712391</v>
+        <v>293.0635867921236</v>
       </c>
       <c r="R18" t="n">
-        <v>27.96460840468619</v>
+        <v>27.96456767618079</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294788903, 'dec': 0.4878483884142574, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457944407927454, 'y': -0.8123521795075654, 'z': 0.4695850734064496, 'ar': 5.114827496093109, 'dec': 0.48882075368222005, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.34580471571667803, 'y': -0.8123680976892096, 'z': 0.4695499679958697, 'ar': 5.114831142552379, 'dec': 0.4887809920476209, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34583973628270637, 'y': -0.8123179581615049, 'z': 0.46961091518003656, 'ar': 5.114889883304163, 'dec': 0.48885002352994145, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3459882305183439, 'y': -0.8126502808609625, 'z': 0.4689260766468241, 'ar': 5.114897185478109, 'dec': 0.4880744906926529, 'R': -159.9706596911487, 'alt': -20.56431798399661}}</t>
+          <t>{'simbad': {'x': 0.7658951968270207, 'y': 0.5593418314187893, 'z': 0.3170824231999841, 'ar': 5.110304807887032, 'dec': 0.48784888768862644, 'ar_deg': 292.7988975173399, 'dec_deg': 27.95168230471, 'pmra': -4.12, 'pmdec': -4.009}, 'proper motion': {'ar': 5.110304294734216, 'dec': 0.48784838836104394, 'pmra': -4.12, 'pmdec': -4.009}, 'precession': {'x': 0.3457948132443118, 'y': -0.8123519678216704, 'z': 0.4695851653423386, 'ar': 5.114827978154119, 'dec': 0.4888208578131763, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3458047135435243, 'y': -0.8123680570576788, 'z': 0.4695500398928888, 'ar': 5.114831158312245, 'dec': 0.4887810734798783, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.3458383224557802, 'y': -0.8123182344790318, 'z': 0.4696114784093773, 'ar': 5.1148882872888635, 'dec': 0.488850661480278, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.3460105640004008, 'y': -0.8126411342452514, 'z': 0.46892544880046283, 'ar': 5.114924507226723, 'dec': 0.48807377984613426, 'R': -160.37908596988487, 'alt': -20.51300490115246}}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>19h32m14.885s</t>
+          <t>19h32m15.261s</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>+27°57'52.590"</t>
+          <t>+27°57'52.444"</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5.114897185478109</v>
+        <v>5.114924507226724</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4880744906926529</v>
+        <v>0.4880737798461343</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>19h32m14.885s</t>
+          <t>19h32m15.261s</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>+27°57'52.590"</t>
+          <t>+27°57'52.444"</t>
         </is>
       </c>
       <c r="AD18" t="n">
-        <v>5.114897185478109</v>
+        <v>5.114924507226724</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4880744906926529</v>
+        <v>0.4880737798461343</v>
       </c>
     </row>
     <row r="19">
@@ -2524,31 +2524,31 @@
         <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>293.0424300562003</v>
+        <v>293.0439813971735</v>
       </c>
       <c r="R19" t="n">
-        <v>27.79910366438327</v>
+        <v>27.79906294046827</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7234418187578643, 'y': 0.5063524164086586, 'z': 0.46929645776356116, 'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'ar_deg': 292.77879, 'dec_deg': 27.785839999999997, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.34604705510974415, 'y': -0.8137179508663043, 'z': 0.4670273354824282, 'ar': 5.114485407080641, 'dec': 0.48592596271293836, 'ang_zeta': 0.002884906004788719, 'ang_theta': 0.002495847308970039, 'ang_z': 0.002859452059615059}, 'nutation': {'x': 0.3460573717973707, 'y': -0.8137337462863977, 'z': 0.4669921686488979, 'ar': 5.114489152966591, 'dec': 0.48588619257165666, 'dpsi': 1.8395080677480903e-05, 'deps': 4.6328553842963374e-05, 'epsm': 0.40903450153954407, 'w': -6.489029559732177}, 'aberration': {'x': 0.34609247895216483, 'y': -0.8136838471401759, 'z': 0.46705309432216385, 'ar': 5.114547774834383, 'dec': 0.4859550938923187, 'lambda_s': 2.9374310261761423, 'epsilon_m': 0.4090294394126815, 'omega_bar': 4.9396478113010245}, 'refraction': {'x': 0.3462390799295212, 'y': -0.8140116148960596, 'z': 0.46637280189122043, 'ar': 5.114555252525887, 'dec': 0.48518588804670876, 'R': -158.66595859775043, 'alt': -20.729670410430284}}</t>
+          <t>{'simbad': {'x': 0.7234418187578643, 'y': 0.5063524164086586, 'z': 0.46929645776356116, 'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'ar_deg': 292.77879, 'dec_deg': 27.785839999999997, 'pmra': nan, 'pmdec': nan}, 'proper motion': {'ar': 5.109953865505049, 'dec': 0.48495439343234115, 'pmra': 0, 'pmdec': 0}, 'precession': {'x': 0.3460474291124171, 'y': -0.8137177389838324, 'z': 0.4670274275326089, 'ar': 5.1144858900849055, 'dec': 0.48592606681350337, 'ang_zeta': 0.0028852121230277415, 'ang_theta': 0.002496113304495591, 'ang_z': 0.0028597582311986106}, 'nutation': {'x': 0.3460573696526204, 'y': -0.8137337058410687, 'z': 0.4669922407142014, 'ar': 5.114489168634659, 'dec': 0.4858862740693912, 'dpsi': 1.7724397752215108e-05, 'deps': 4.623967697805032e-05, 'epsm': 0.4090344953255741, 'w': -6.489953776770748}, 'aberration': {'x': 0.34609106575415866, 'y': -0.8136841256470773, 'z': 0.4670536563127431, 'ar': 5.114546180835829, 'dec': 0.485955729463534, 'lambda_s': 2.9546338179558234, 'epsilon_m': 0.4090294332006951, 'omega_bar': 4.939647965644993}, 'refraction': {'x': 0.34626124974192063, 'y': -0.8140025448568311, 'z': 0.4663721731554807, 'ar': 5.1145823285336895, 'dec': 0.48518517728030774, 'R': -159.07452989666425, 'alt': -20.677653064930396}}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>19h32m10.183s</t>
+          <t>19h32m10.556s</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>+27°47'56.773"</t>
+          <t>+27°47'56.627"</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5.114555252525887</v>
+        <v>5.11458232853369</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4851858880467087</v>
+        <v>0.4851851772803078</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2568,19 +2568,19 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>19h32m10.183s</t>
+          <t>19h32m10.556s</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>+27°47'56.773"</t>
+          <t>+27°47'56.627"</t>
         </is>
       </c>
       <c r="AD19" t="n">
-        <v>5.114555252525887</v>
+        <v>5.11458232853369</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4851858880467087</v>
+        <v>0.4851851772803078</v>
       </c>
     </row>
   </sheetData>
